--- a/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.159130286436302</v>
+        <v>6.159130286436352</v>
       </c>
       <c r="D2">
-        <v>9.560592964824071</v>
+        <v>9.560592964824021</v>
       </c>
       <c r="E2">
-        <v>6.759717214577114</v>
+        <v>6.759717214577124</v>
       </c>
       <c r="F2">
-        <v>67.62856766890256</v>
+        <v>67.62856766890273</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.421541292853588</v>
+        <v>4.421541292853699</v>
       </c>
       <c r="J2">
-        <v>63.22334380693857</v>
+        <v>63.22334380693854</v>
       </c>
       <c r="K2">
-        <v>7.519520780504784</v>
+        <v>7.519520780504798</v>
       </c>
       <c r="L2">
-        <v>40.2203167905813</v>
+        <v>40.22031679058131</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.697294302439155</v>
+        <v>5.697294302439096</v>
       </c>
       <c r="D3">
-        <v>8.571231112595932</v>
+        <v>8.571231112595736</v>
       </c>
       <c r="E3">
-        <v>6.465612053783936</v>
+        <v>6.46561205378382</v>
       </c>
       <c r="F3">
-        <v>61.54339046649437</v>
+        <v>61.54339046649409</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.687443669717491</v>
+        <v>4.687443669717551</v>
       </c>
       <c r="J3">
-        <v>57.98502817455841</v>
+        <v>57.98502817455822</v>
       </c>
       <c r="K3">
-        <v>7.099848935102243</v>
+        <v>7.099848935102202</v>
       </c>
       <c r="L3">
-        <v>36.87449438660434</v>
+        <v>36.87449438660428</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.423014811647478</v>
+        <v>5.423014811647505</v>
       </c>
       <c r="D4">
         <v>8.005596164227907</v>
       </c>
       <c r="E4">
-        <v>6.289363802460958</v>
+        <v>6.289363802461073</v>
       </c>
       <c r="F4">
-        <v>58.01903618778063</v>
+        <v>58.01903618778053</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>4.848698798088601</v>
       </c>
       <c r="J4">
-        <v>54.73734136570086</v>
+        <v>54.73734136570101</v>
       </c>
       <c r="K4">
-        <v>6.845987692610294</v>
+        <v>6.845987692610353</v>
       </c>
       <c r="L4">
-        <v>34.79985966006456</v>
+        <v>34.79985966006464</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.312873698247341</v>
+        <v>5.312873698247295</v>
       </c>
       <c r="D5">
-        <v>7.827869528833216</v>
+        <v>7.827869528833157</v>
       </c>
       <c r="E5">
-        <v>6.218171957656422</v>
+        <v>6.21817195765636</v>
       </c>
       <c r="F5">
-        <v>56.67463259734532</v>
+        <v>56.67463259734512</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.914155934835503</v>
+        <v>4.914155934835499</v>
       </c>
       <c r="J5">
-        <v>53.39924178711624</v>
+        <v>53.39924178711597</v>
       </c>
       <c r="K5">
-        <v>6.742886103957215</v>
+        <v>6.742886103957208</v>
       </c>
       <c r="L5">
-        <v>33.94496856864942</v>
+        <v>33.94496856864925</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.294667707836965</v>
+        <v>5.294667707836997</v>
       </c>
       <c r="D6">
-        <v>7.798789016000364</v>
+        <v>7.798789016000406</v>
       </c>
       <c r="E6">
-        <v>6.206378392537049</v>
+        <v>6.206378392537339</v>
       </c>
       <c r="F6">
-        <v>56.45300289329457</v>
+        <v>56.45300289329496</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.925016182122448</v>
+        <v>4.925016182122523</v>
       </c>
       <c r="J6">
-        <v>53.17600762377268</v>
+        <v>53.1760076237729</v>
       </c>
       <c r="K6">
-        <v>6.725773438165042</v>
+        <v>6.725773438165178</v>
       </c>
       <c r="L6">
-        <v>33.80233992561166</v>
+        <v>33.8023399256118</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.421523545295245</v>
+        <v>5.421523545295235</v>
       </c>
       <c r="D7">
-        <v>8.003169570314665</v>
+        <v>8.003169570314546</v>
       </c>
       <c r="E7">
-        <v>6.288401614745085</v>
+        <v>6.288401614744959</v>
       </c>
       <c r="F7">
-        <v>58.00079267278566</v>
+        <v>58.00079267278498</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.849582308645149</v>
+        <v>4.849582308645105</v>
       </c>
       <c r="J7">
-        <v>54.7193620018121</v>
+        <v>54.7193620018118</v>
       </c>
       <c r="K7">
-        <v>6.844596463710666</v>
+        <v>6.844596463710613</v>
       </c>
       <c r="L7">
-        <v>34.78837341492031</v>
+        <v>34.78837341492014</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.99743612396299</v>
+        <v>5.997436123962951</v>
       </c>
       <c r="D8">
-        <v>9.213834260671703</v>
+        <v>9.213834260671632</v>
       </c>
       <c r="E8">
-        <v>6.657071346872007</v>
+        <v>6.657071346871867</v>
       </c>
       <c r="F8">
-        <v>65.49351774984042</v>
+        <v>65.49351774983981</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.513804504449512</v>
+        <v>4.513804504449465</v>
       </c>
       <c r="J8">
-        <v>61.41884142734039</v>
+        <v>61.41884142734008</v>
       </c>
       <c r="K8">
-        <v>7.373575664625489</v>
+        <v>7.373575664625339</v>
       </c>
       <c r="L8">
-        <v>39.06777634592554</v>
+        <v>39.06777634592533</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.357253901526271</v>
+        <v>7.357253901526377</v>
       </c>
       <c r="D9">
-        <v>11.94680011112175</v>
+        <v>11.94680011112183</v>
       </c>
       <c r="E9">
-        <v>7.451708965564885</v>
+        <v>7.451708965564904</v>
       </c>
       <c r="F9">
-        <v>82.30434490558669</v>
+        <v>82.30434490558775</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.826061664737273</v>
+        <v>3.826061664737241</v>
       </c>
       <c r="J9">
-        <v>74.81291259939952</v>
+        <v>74.81291259939997</v>
       </c>
       <c r="K9">
-        <v>8.490094979714332</v>
+        <v>8.490094979714357</v>
       </c>
       <c r="L9">
-        <v>47.62269710725269</v>
+        <v>47.62269710725296</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.666879851015095</v>
+        <v>8.666879851015148</v>
       </c>
       <c r="D10">
-        <v>14.66466225390318</v>
+        <v>14.66466225390312</v>
       </c>
       <c r="E10">
-        <v>8.211440748123561</v>
+        <v>8.211440748123552</v>
       </c>
       <c r="F10">
         <v>98.80297085596909</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.286825309302546</v>
+        <v>3.286825309302594</v>
       </c>
       <c r="J10">
-        <v>86.45264137343891</v>
+        <v>86.45264137343881</v>
       </c>
       <c r="K10">
-        <v>9.527346222338217</v>
+        <v>9.527346222338247</v>
       </c>
       <c r="L10">
-        <v>55.05650243779072</v>
+        <v>55.0565024377907</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.537460576354986</v>
+        <v>9.537460576355148</v>
       </c>
       <c r="D11">
-        <v>16.61427406506381</v>
+        <v>16.61427406506418</v>
       </c>
       <c r="E11">
-        <v>8.747440891521324</v>
+        <v>8.747440891521475</v>
       </c>
       <c r="F11">
-        <v>110.390970647156</v>
+        <v>110.390970647158</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.048273106955236</v>
+        <v>3.048273106955263</v>
       </c>
       <c r="J11">
-        <v>93.88362576191884</v>
+        <v>93.88362576191986</v>
       </c>
       <c r="K11">
-        <v>10.23403921178387</v>
+        <v>10.23403921178405</v>
       </c>
       <c r="L11">
-        <v>59.79787129751146</v>
+        <v>59.7978712975121</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.07393381785068</v>
+        <v>10.07393381785038</v>
       </c>
       <c r="D12">
-        <v>17.88610778888958</v>
+        <v>17.88610778888878</v>
       </c>
       <c r="E12">
-        <v>9.100461802557721</v>
+        <v>9.100461802557316</v>
       </c>
       <c r="F12">
-        <v>117.806547747595</v>
+        <v>117.8065477475911</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.227199449820554</v>
+        <v>3.227199449820495</v>
       </c>
       <c r="J12">
-        <v>98.34186197484161</v>
+        <v>98.34186197483955</v>
       </c>
       <c r="K12">
-        <v>10.68304270787623</v>
+        <v>10.68304270787581</v>
       </c>
       <c r="L12">
-        <v>62.63729156315498</v>
+        <v>62.63729156315377</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.930542382435897</v>
+        <v>9.930542382435963</v>
       </c>
       <c r="D13">
-        <v>17.54018384183028</v>
+        <v>17.54018384183048</v>
       </c>
       <c r="E13">
-        <v>9.003787647565471</v>
+        <v>9.003787647565506</v>
       </c>
       <c r="F13">
-        <v>115.8021132627988</v>
+        <v>115.8021132627998</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.160022145691496</v>
+        <v>3.160022145691574</v>
       </c>
       <c r="J13">
-        <v>97.15904539909475</v>
+        <v>97.15904539909512</v>
       </c>
       <c r="K13">
-        <v>10.56161552150206</v>
+        <v>10.56161552150208</v>
       </c>
       <c r="L13">
-        <v>61.88455464599947</v>
+        <v>61.88455464599972</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.573038805414779</v>
+        <v>9.573038805414766</v>
       </c>
       <c r="D14">
-        <v>16.69680504937995</v>
+        <v>16.69680504937971</v>
       </c>
       <c r="E14">
-        <v>8.770187334769863</v>
+        <v>8.770187334769766</v>
       </c>
       <c r="F14">
-        <v>110.8758947388451</v>
+        <v>110.8758947388445</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.041628437467033</v>
+        <v>3.041628437467018</v>
       </c>
       <c r="J14">
-        <v>94.18210390574411</v>
+        <v>94.1821039057438</v>
       </c>
       <c r="K14">
-        <v>10.26341311395879</v>
+        <v>10.26341311395867</v>
       </c>
       <c r="L14">
-        <v>59.98813590820374</v>
+        <v>59.98813590820352</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.3961422887333</v>
+        <v>9.396142288733014</v>
       </c>
       <c r="D15">
-        <v>16.28882247577301</v>
+        <v>16.28882247577256</v>
       </c>
       <c r="E15">
-        <v>8.657866868628853</v>
+        <v>8.657866868628671</v>
       </c>
       <c r="F15">
-        <v>108.473993222015</v>
+        <v>108.4739932220127</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.077378303075945</v>
+        <v>3.077378303075935</v>
       </c>
       <c r="J15">
-        <v>92.6940494940491</v>
+        <v>92.69404949404783</v>
       </c>
       <c r="K15">
-        <v>10.11782750448242</v>
+        <v>10.11782750448216</v>
       </c>
       <c r="L15">
-        <v>59.03939576764596</v>
+        <v>59.03939576764516</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.620266013453262</v>
+        <v>8.620266013453341</v>
       </c>
       <c r="D16">
-        <v>14.56376567956721</v>
+        <v>14.5637656795673</v>
       </c>
       <c r="E16">
-        <v>8.183625680842601</v>
+        <v>8.183625680842646</v>
       </c>
       <c r="F16">
-        <v>98.19691363736678</v>
+        <v>98.19691363736791</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.303052789538234</v>
+        <v>3.303052789538258</v>
       </c>
       <c r="J16">
-        <v>86.04782573787844</v>
+        <v>86.0478257378789</v>
       </c>
       <c r="K16">
-        <v>9.490011620291138</v>
+        <v>9.490011620291268</v>
       </c>
       <c r="L16">
-        <v>54.79804228626899</v>
+        <v>54.79804228626929</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.239822839647456</v>
+        <v>8.23982283964747</v>
       </c>
       <c r="D17">
-        <v>13.7523437380159</v>
+        <v>13.75234373801607</v>
       </c>
       <c r="E17">
-        <v>7.959090355401393</v>
+        <v>7.959090355401366</v>
       </c>
       <c r="F17">
-        <v>93.30298891199486</v>
+        <v>93.30298891199526</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.445454553014007</v>
+        <v>3.445454553013946</v>
       </c>
       <c r="J17">
-        <v>82.71757139612804</v>
+        <v>82.71757139612819</v>
       </c>
       <c r="K17">
-        <v>9.186656242161019</v>
+        <v>9.186656242161011</v>
       </c>
       <c r="L17">
-        <v>52.67145829710483</v>
+        <v>52.67145829710493</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.038554790569798</v>
+        <v>8.03855479056968</v>
       </c>
       <c r="D18">
-        <v>13.33143089879594</v>
+        <v>13.33143089879613</v>
       </c>
       <c r="E18">
-        <v>7.84188106627223</v>
+        <v>7.841881066272394</v>
       </c>
       <c r="F18">
-        <v>90.75131666682607</v>
+        <v>90.75131666682688</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.526991792392082</v>
+        <v>3.526991792392071</v>
       </c>
       <c r="J18">
-        <v>80.93685278927339</v>
+        <v>80.93685278927376</v>
       </c>
       <c r="K18">
-        <v>9.027017229254426</v>
+        <v>9.027017229254501</v>
       </c>
       <c r="L18">
-        <v>51.53418163875057</v>
+        <v>51.53418163875079</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.972653399757547</v>
+        <v>7.972653399757506</v>
       </c>
       <c r="D19">
-        <v>13.19482251469789</v>
+        <v>13.19482251469812</v>
       </c>
       <c r="E19">
-        <v>7.803713505854895</v>
+        <v>7.803713505855021</v>
       </c>
       <c r="F19">
-        <v>89.92140109323188</v>
+        <v>89.92140109323292</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.554481303963909</v>
+        <v>3.554481303964005</v>
       </c>
       <c r="J19">
-        <v>80.35096149761817</v>
+        <v>80.35096149761868</v>
       </c>
       <c r="K19">
-        <v>8.9748576111811</v>
+        <v>8.974857611181237</v>
       </c>
       <c r="L19">
-        <v>51.15997875179921</v>
+        <v>51.15997875179951</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.278294192349881</v>
+        <v>8.278294192350028</v>
       </c>
       <c r="D20">
-        <v>13.83344429884937</v>
+        <v>13.83344429884939</v>
       </c>
       <c r="E20">
-        <v>7.981610534153047</v>
+        <v>7.981610534153003</v>
       </c>
       <c r="F20">
-        <v>93.79365896965557</v>
+        <v>93.79365896965595</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.430317428618426</v>
+        <v>3.43031742861844</v>
       </c>
       <c r="J20">
-        <v>83.05646139426702</v>
+        <v>83.05646139426719</v>
       </c>
       <c r="K20">
-        <v>9.217232202774753</v>
+        <v>9.217232202774776</v>
       </c>
       <c r="L20">
-        <v>52.88788361329097</v>
+        <v>52.88788361329107</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.666794203176565</v>
+        <v>9.666794203176504</v>
       </c>
       <c r="D21">
-        <v>16.91546946352659</v>
+        <v>16.91546946352618</v>
       </c>
       <c r="E21">
-        <v>8.830532503627561</v>
+        <v>8.8305325036275</v>
       </c>
       <c r="F21">
-        <v>112.1582882876768</v>
+        <v>112.1582882876753</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.037472615773444</v>
+        <v>3.037472615773412</v>
       </c>
       <c r="J21">
-        <v>94.96671587147458</v>
+        <v>94.96671587147397</v>
       </c>
       <c r="K21">
-        <v>10.34106144510251</v>
+        <v>10.34106144510237</v>
       </c>
       <c r="L21">
-        <v>60.48818948628589</v>
+        <v>60.48818948628553</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.666794203176565</v>
+        <v>9.666794203176504</v>
       </c>
       <c r="D22">
-        <v>16.91546946352659</v>
+        <v>16.91546946352618</v>
       </c>
       <c r="E22">
-        <v>8.830532503627561</v>
+        <v>8.8305325036275</v>
       </c>
       <c r="F22">
-        <v>112.1582882876768</v>
+        <v>112.1582882876753</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.037472615773444</v>
+        <v>3.037472615773412</v>
       </c>
       <c r="J22">
-        <v>94.96671587147458</v>
+        <v>94.96671587147397</v>
       </c>
       <c r="K22">
-        <v>10.34106144510251</v>
+        <v>10.34106144510237</v>
       </c>
       <c r="L22">
-        <v>60.48818948628589</v>
+        <v>60.48818948628553</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.666794203176565</v>
+        <v>9.666794203176504</v>
       </c>
       <c r="D23">
-        <v>16.91546946352659</v>
+        <v>16.91546946352618</v>
       </c>
       <c r="E23">
-        <v>8.830532503627561</v>
+        <v>8.8305325036275</v>
       </c>
       <c r="F23">
-        <v>112.1582882876768</v>
+        <v>112.1582882876753</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.037472615773444</v>
+        <v>3.037472615773412</v>
       </c>
       <c r="J23">
-        <v>94.96671587147458</v>
+        <v>94.96671587147397</v>
       </c>
       <c r="K23">
-        <v>10.34106144510251</v>
+        <v>10.34106144510237</v>
       </c>
       <c r="L23">
-        <v>60.48818948628589</v>
+        <v>60.48818948628553</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.666794203176565</v>
+        <v>9.666794203176504</v>
       </c>
       <c r="D24">
-        <v>16.91546946352659</v>
+        <v>16.91546946352618</v>
       </c>
       <c r="E24">
-        <v>8.830532503627561</v>
+        <v>8.8305325036275</v>
       </c>
       <c r="F24">
-        <v>112.1582882876768</v>
+        <v>112.1582882876753</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.037472615773444</v>
+        <v>3.037472615773412</v>
       </c>
       <c r="J24">
-        <v>94.96671587147458</v>
+        <v>94.96671587147397</v>
       </c>
       <c r="K24">
-        <v>10.34106144510251</v>
+        <v>10.34106144510237</v>
       </c>
       <c r="L24">
-        <v>60.48818948628589</v>
+        <v>60.48818948628553</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.666794203176565</v>
+        <v>9.666794203176504</v>
       </c>
       <c r="D25">
-        <v>16.91546946352659</v>
+        <v>16.91546946352618</v>
       </c>
       <c r="E25">
-        <v>8.830532503627561</v>
+        <v>8.8305325036275</v>
       </c>
       <c r="F25">
-        <v>112.1582882876768</v>
+        <v>112.1582882876753</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.037472615773444</v>
+        <v>3.037472615773412</v>
       </c>
       <c r="J25">
-        <v>94.96671587147458</v>
+        <v>94.96671587147397</v>
       </c>
       <c r="K25">
-        <v>10.34106144510251</v>
+        <v>10.34106144510237</v>
       </c>
       <c r="L25">
-        <v>60.48818948628589</v>
+        <v>60.48818948628553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.159130286436352</v>
+        <v>6.159130286436302</v>
       </c>
       <c r="D2">
-        <v>9.560592964824021</v>
+        <v>9.560592964824071</v>
       </c>
       <c r="E2">
-        <v>6.759717214577124</v>
+        <v>6.759717214577114</v>
       </c>
       <c r="F2">
-        <v>67.62856766890273</v>
+        <v>67.62856766890256</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.421541292853699</v>
+        <v>4.421541292853588</v>
       </c>
       <c r="J2">
-        <v>63.22334380693854</v>
+        <v>63.22334380693857</v>
       </c>
       <c r="K2">
-        <v>7.519520780504798</v>
+        <v>7.519520780504784</v>
       </c>
       <c r="L2">
-        <v>40.22031679058131</v>
+        <v>40.2203167905813</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.697294302439096</v>
+        <v>5.697294302439155</v>
       </c>
       <c r="D3">
-        <v>8.571231112595736</v>
+        <v>8.571231112595932</v>
       </c>
       <c r="E3">
-        <v>6.46561205378382</v>
+        <v>6.465612053783936</v>
       </c>
       <c r="F3">
-        <v>61.54339046649409</v>
+        <v>61.54339046649437</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.687443669717551</v>
+        <v>4.687443669717491</v>
       </c>
       <c r="J3">
-        <v>57.98502817455822</v>
+        <v>57.98502817455841</v>
       </c>
       <c r="K3">
-        <v>7.099848935102202</v>
+        <v>7.099848935102243</v>
       </c>
       <c r="L3">
-        <v>36.87449438660428</v>
+        <v>36.87449438660434</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.423014811647505</v>
+        <v>5.423014811647478</v>
       </c>
       <c r="D4">
         <v>8.005596164227907</v>
       </c>
       <c r="E4">
-        <v>6.289363802461073</v>
+        <v>6.289363802460958</v>
       </c>
       <c r="F4">
-        <v>58.01903618778053</v>
+        <v>58.01903618778063</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>4.848698798088601</v>
       </c>
       <c r="J4">
-        <v>54.73734136570101</v>
+        <v>54.73734136570086</v>
       </c>
       <c r="K4">
-        <v>6.845987692610353</v>
+        <v>6.845987692610294</v>
       </c>
       <c r="L4">
-        <v>34.79985966006464</v>
+        <v>34.79985966006456</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.312873698247295</v>
+        <v>5.312873698247341</v>
       </c>
       <c r="D5">
-        <v>7.827869528833157</v>
+        <v>7.827869528833216</v>
       </c>
       <c r="E5">
-        <v>6.21817195765636</v>
+        <v>6.218171957656422</v>
       </c>
       <c r="F5">
-        <v>56.67463259734512</v>
+        <v>56.67463259734532</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.914155934835499</v>
+        <v>4.914155934835503</v>
       </c>
       <c r="J5">
-        <v>53.39924178711597</v>
+        <v>53.39924178711624</v>
       </c>
       <c r="K5">
-        <v>6.742886103957208</v>
+        <v>6.742886103957215</v>
       </c>
       <c r="L5">
-        <v>33.94496856864925</v>
+        <v>33.94496856864942</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.294667707836997</v>
+        <v>5.294667707836965</v>
       </c>
       <c r="D6">
-        <v>7.798789016000406</v>
+        <v>7.798789016000364</v>
       </c>
       <c r="E6">
-        <v>6.206378392537339</v>
+        <v>6.206378392537049</v>
       </c>
       <c r="F6">
-        <v>56.45300289329496</v>
+        <v>56.45300289329457</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.925016182122523</v>
+        <v>4.925016182122448</v>
       </c>
       <c r="J6">
-        <v>53.1760076237729</v>
+        <v>53.17600762377268</v>
       </c>
       <c r="K6">
-        <v>6.725773438165178</v>
+        <v>6.725773438165042</v>
       </c>
       <c r="L6">
-        <v>33.8023399256118</v>
+        <v>33.80233992561166</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.421523545295235</v>
+        <v>5.421523545295245</v>
       </c>
       <c r="D7">
-        <v>8.003169570314546</v>
+        <v>8.003169570314665</v>
       </c>
       <c r="E7">
-        <v>6.288401614744959</v>
+        <v>6.288401614745085</v>
       </c>
       <c r="F7">
-        <v>58.00079267278498</v>
+        <v>58.00079267278566</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.849582308645105</v>
+        <v>4.849582308645149</v>
       </c>
       <c r="J7">
-        <v>54.7193620018118</v>
+        <v>54.7193620018121</v>
       </c>
       <c r="K7">
-        <v>6.844596463710613</v>
+        <v>6.844596463710666</v>
       </c>
       <c r="L7">
-        <v>34.78837341492014</v>
+        <v>34.78837341492031</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.997436123962951</v>
+        <v>5.99743612396299</v>
       </c>
       <c r="D8">
-        <v>9.213834260671632</v>
+        <v>9.213834260671703</v>
       </c>
       <c r="E8">
-        <v>6.657071346871867</v>
+        <v>6.657071346872007</v>
       </c>
       <c r="F8">
-        <v>65.49351774983981</v>
+        <v>65.49351774984042</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.513804504449465</v>
+        <v>4.513804504449512</v>
       </c>
       <c r="J8">
-        <v>61.41884142734008</v>
+        <v>61.41884142734039</v>
       </c>
       <c r="K8">
-        <v>7.373575664625339</v>
+        <v>7.373575664625489</v>
       </c>
       <c r="L8">
-        <v>39.06777634592533</v>
+        <v>39.06777634592554</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.357253901526377</v>
+        <v>7.357253901526271</v>
       </c>
       <c r="D9">
-        <v>11.94680011112183</v>
+        <v>11.94680011112175</v>
       </c>
       <c r="E9">
-        <v>7.451708965564904</v>
+        <v>7.451708965564885</v>
       </c>
       <c r="F9">
-        <v>82.30434490558775</v>
+        <v>82.30434490558669</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.826061664737241</v>
+        <v>3.826061664737273</v>
       </c>
       <c r="J9">
-        <v>74.81291259939997</v>
+        <v>74.81291259939952</v>
       </c>
       <c r="K9">
-        <v>8.490094979714357</v>
+        <v>8.490094979714332</v>
       </c>
       <c r="L9">
-        <v>47.62269710725296</v>
+        <v>47.62269710725269</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.666879851015148</v>
+        <v>8.666879851015095</v>
       </c>
       <c r="D10">
-        <v>14.66466225390312</v>
+        <v>14.66466225390318</v>
       </c>
       <c r="E10">
-        <v>8.211440748123552</v>
+        <v>8.211440748123561</v>
       </c>
       <c r="F10">
         <v>98.80297085596909</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.286825309302594</v>
+        <v>3.286825309302546</v>
       </c>
       <c r="J10">
-        <v>86.45264137343881</v>
+        <v>86.45264137343891</v>
       </c>
       <c r="K10">
-        <v>9.527346222338247</v>
+        <v>9.527346222338217</v>
       </c>
       <c r="L10">
-        <v>55.0565024377907</v>
+        <v>55.05650243779072</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.537460576355148</v>
+        <v>9.537460576354986</v>
       </c>
       <c r="D11">
-        <v>16.61427406506418</v>
+        <v>16.61427406506381</v>
       </c>
       <c r="E11">
-        <v>8.747440891521475</v>
+        <v>8.747440891521324</v>
       </c>
       <c r="F11">
-        <v>110.390970647158</v>
+        <v>110.390970647156</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.048273106955263</v>
+        <v>3.048273106955236</v>
       </c>
       <c r="J11">
-        <v>93.88362576191986</v>
+        <v>93.88362576191884</v>
       </c>
       <c r="K11">
-        <v>10.23403921178405</v>
+        <v>10.23403921178387</v>
       </c>
       <c r="L11">
-        <v>59.7978712975121</v>
+        <v>59.79787129751146</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.07393381785038</v>
+        <v>10.07393381785068</v>
       </c>
       <c r="D12">
-        <v>17.88610778888878</v>
+        <v>17.88610778888958</v>
       </c>
       <c r="E12">
-        <v>9.100461802557316</v>
+        <v>9.100461802557721</v>
       </c>
       <c r="F12">
-        <v>117.8065477475911</v>
+        <v>117.806547747595</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.227199449820495</v>
+        <v>3.227199449820554</v>
       </c>
       <c r="J12">
-        <v>98.34186197483955</v>
+        <v>98.34186197484161</v>
       </c>
       <c r="K12">
-        <v>10.68304270787581</v>
+        <v>10.68304270787623</v>
       </c>
       <c r="L12">
-        <v>62.63729156315377</v>
+        <v>62.63729156315498</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.930542382435963</v>
+        <v>9.930542382435897</v>
       </c>
       <c r="D13">
-        <v>17.54018384183048</v>
+        <v>17.54018384183028</v>
       </c>
       <c r="E13">
-        <v>9.003787647565506</v>
+        <v>9.003787647565471</v>
       </c>
       <c r="F13">
-        <v>115.8021132627998</v>
+        <v>115.8021132627988</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.160022145691574</v>
+        <v>3.160022145691496</v>
       </c>
       <c r="J13">
-        <v>97.15904539909512</v>
+        <v>97.15904539909475</v>
       </c>
       <c r="K13">
-        <v>10.56161552150208</v>
+        <v>10.56161552150206</v>
       </c>
       <c r="L13">
-        <v>61.88455464599972</v>
+        <v>61.88455464599947</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.573038805414766</v>
+        <v>9.573038805414779</v>
       </c>
       <c r="D14">
-        <v>16.69680504937971</v>
+        <v>16.69680504937995</v>
       </c>
       <c r="E14">
-        <v>8.770187334769766</v>
+        <v>8.770187334769863</v>
       </c>
       <c r="F14">
-        <v>110.8758947388445</v>
+        <v>110.8758947388451</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.041628437467018</v>
+        <v>3.041628437467033</v>
       </c>
       <c r="J14">
-        <v>94.1821039057438</v>
+        <v>94.18210390574411</v>
       </c>
       <c r="K14">
-        <v>10.26341311395867</v>
+        <v>10.26341311395879</v>
       </c>
       <c r="L14">
-        <v>59.98813590820352</v>
+        <v>59.98813590820374</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.396142288733014</v>
+        <v>9.3961422887333</v>
       </c>
       <c r="D15">
-        <v>16.28882247577256</v>
+        <v>16.28882247577301</v>
       </c>
       <c r="E15">
-        <v>8.657866868628671</v>
+        <v>8.657866868628853</v>
       </c>
       <c r="F15">
-        <v>108.4739932220127</v>
+        <v>108.473993222015</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.077378303075935</v>
+        <v>3.077378303075945</v>
       </c>
       <c r="J15">
-        <v>92.69404949404783</v>
+        <v>92.6940494940491</v>
       </c>
       <c r="K15">
-        <v>10.11782750448216</v>
+        <v>10.11782750448242</v>
       </c>
       <c r="L15">
-        <v>59.03939576764516</v>
+        <v>59.03939576764596</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.620266013453341</v>
+        <v>8.620266013453262</v>
       </c>
       <c r="D16">
-        <v>14.5637656795673</v>
+        <v>14.56376567956721</v>
       </c>
       <c r="E16">
-        <v>8.183625680842646</v>
+        <v>8.183625680842601</v>
       </c>
       <c r="F16">
-        <v>98.19691363736791</v>
+        <v>98.19691363736678</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.303052789538258</v>
+        <v>3.303052789538234</v>
       </c>
       <c r="J16">
-        <v>86.0478257378789</v>
+        <v>86.04782573787844</v>
       </c>
       <c r="K16">
-        <v>9.490011620291268</v>
+        <v>9.490011620291138</v>
       </c>
       <c r="L16">
-        <v>54.79804228626929</v>
+        <v>54.79804228626899</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.23982283964747</v>
+        <v>8.239822839647456</v>
       </c>
       <c r="D17">
-        <v>13.75234373801607</v>
+        <v>13.7523437380159</v>
       </c>
       <c r="E17">
-        <v>7.959090355401366</v>
+        <v>7.959090355401393</v>
       </c>
       <c r="F17">
-        <v>93.30298891199526</v>
+        <v>93.30298891199486</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.445454553013946</v>
+        <v>3.445454553014007</v>
       </c>
       <c r="J17">
-        <v>82.71757139612819</v>
+        <v>82.71757139612804</v>
       </c>
       <c r="K17">
-        <v>9.186656242161011</v>
+        <v>9.186656242161019</v>
       </c>
       <c r="L17">
-        <v>52.67145829710493</v>
+        <v>52.67145829710483</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.03855479056968</v>
+        <v>8.038554790569798</v>
       </c>
       <c r="D18">
-        <v>13.33143089879613</v>
+        <v>13.33143089879594</v>
       </c>
       <c r="E18">
-        <v>7.841881066272394</v>
+        <v>7.84188106627223</v>
       </c>
       <c r="F18">
-        <v>90.75131666682688</v>
+        <v>90.75131666682607</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.526991792392071</v>
+        <v>3.526991792392082</v>
       </c>
       <c r="J18">
-        <v>80.93685278927376</v>
+        <v>80.93685278927339</v>
       </c>
       <c r="K18">
-        <v>9.027017229254501</v>
+        <v>9.027017229254426</v>
       </c>
       <c r="L18">
-        <v>51.53418163875079</v>
+        <v>51.53418163875057</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.972653399757506</v>
+        <v>7.972653399757547</v>
       </c>
       <c r="D19">
-        <v>13.19482251469812</v>
+        <v>13.19482251469789</v>
       </c>
       <c r="E19">
-        <v>7.803713505855021</v>
+        <v>7.803713505854895</v>
       </c>
       <c r="F19">
-        <v>89.92140109323292</v>
+        <v>89.92140109323188</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.554481303964005</v>
+        <v>3.554481303963909</v>
       </c>
       <c r="J19">
-        <v>80.35096149761868</v>
+        <v>80.35096149761817</v>
       </c>
       <c r="K19">
-        <v>8.974857611181237</v>
+        <v>8.9748576111811</v>
       </c>
       <c r="L19">
-        <v>51.15997875179951</v>
+        <v>51.15997875179921</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.278294192350028</v>
+        <v>8.278294192349881</v>
       </c>
       <c r="D20">
-        <v>13.83344429884939</v>
+        <v>13.83344429884937</v>
       </c>
       <c r="E20">
-        <v>7.981610534153003</v>
+        <v>7.981610534153047</v>
       </c>
       <c r="F20">
-        <v>93.79365896965595</v>
+        <v>93.79365896965557</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.43031742861844</v>
+        <v>3.430317428618426</v>
       </c>
       <c r="J20">
-        <v>83.05646139426719</v>
+        <v>83.05646139426702</v>
       </c>
       <c r="K20">
-        <v>9.217232202774776</v>
+        <v>9.217232202774753</v>
       </c>
       <c r="L20">
-        <v>52.88788361329107</v>
+        <v>52.88788361329097</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.666794203176504</v>
+        <v>9.666794203176565</v>
       </c>
       <c r="D21">
-        <v>16.91546946352618</v>
+        <v>16.91546946352659</v>
       </c>
       <c r="E21">
-        <v>8.8305325036275</v>
+        <v>8.830532503627561</v>
       </c>
       <c r="F21">
-        <v>112.1582882876753</v>
+        <v>112.1582882876768</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.037472615773412</v>
+        <v>3.037472615773444</v>
       </c>
       <c r="J21">
-        <v>94.96671587147397</v>
+        <v>94.96671587147458</v>
       </c>
       <c r="K21">
-        <v>10.34106144510237</v>
+        <v>10.34106144510251</v>
       </c>
       <c r="L21">
-        <v>60.48818948628553</v>
+        <v>60.48818948628589</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.666794203176504</v>
+        <v>9.666794203176565</v>
       </c>
       <c r="D22">
-        <v>16.91546946352618</v>
+        <v>16.91546946352659</v>
       </c>
       <c r="E22">
-        <v>8.8305325036275</v>
+        <v>8.830532503627561</v>
       </c>
       <c r="F22">
-        <v>112.1582882876753</v>
+        <v>112.1582882876768</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.037472615773412</v>
+        <v>3.037472615773444</v>
       </c>
       <c r="J22">
-        <v>94.96671587147397</v>
+        <v>94.96671587147458</v>
       </c>
       <c r="K22">
-        <v>10.34106144510237</v>
+        <v>10.34106144510251</v>
       </c>
       <c r="L22">
-        <v>60.48818948628553</v>
+        <v>60.48818948628589</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.666794203176504</v>
+        <v>9.666794203176565</v>
       </c>
       <c r="D23">
-        <v>16.91546946352618</v>
+        <v>16.91546946352659</v>
       </c>
       <c r="E23">
-        <v>8.8305325036275</v>
+        <v>8.830532503627561</v>
       </c>
       <c r="F23">
-        <v>112.1582882876753</v>
+        <v>112.1582882876768</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.037472615773412</v>
+        <v>3.037472615773444</v>
       </c>
       <c r="J23">
-        <v>94.96671587147397</v>
+        <v>94.96671587147458</v>
       </c>
       <c r="K23">
-        <v>10.34106144510237</v>
+        <v>10.34106144510251</v>
       </c>
       <c r="L23">
-        <v>60.48818948628553</v>
+        <v>60.48818948628589</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.666794203176504</v>
+        <v>9.666794203176565</v>
       </c>
       <c r="D24">
-        <v>16.91546946352618</v>
+        <v>16.91546946352659</v>
       </c>
       <c r="E24">
-        <v>8.8305325036275</v>
+        <v>8.830532503627561</v>
       </c>
       <c r="F24">
-        <v>112.1582882876753</v>
+        <v>112.1582882876768</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.037472615773412</v>
+        <v>3.037472615773444</v>
       </c>
       <c r="J24">
-        <v>94.96671587147397</v>
+        <v>94.96671587147458</v>
       </c>
       <c r="K24">
-        <v>10.34106144510237</v>
+        <v>10.34106144510251</v>
       </c>
       <c r="L24">
-        <v>60.48818948628553</v>
+        <v>60.48818948628589</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.666794203176504</v>
+        <v>9.666794203176565</v>
       </c>
       <c r="D25">
-        <v>16.91546946352618</v>
+        <v>16.91546946352659</v>
       </c>
       <c r="E25">
-        <v>8.8305325036275</v>
+        <v>8.830532503627561</v>
       </c>
       <c r="F25">
-        <v>112.1582882876753</v>
+        <v>112.1582882876768</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.037472615773412</v>
+        <v>3.037472615773444</v>
       </c>
       <c r="J25">
-        <v>94.96671587147397</v>
+        <v>94.96671587147458</v>
       </c>
       <c r="K25">
-        <v>10.34106144510237</v>
+        <v>10.34106144510251</v>
       </c>
       <c r="L25">
-        <v>60.48818948628553</v>
+        <v>60.48818948628589</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.159130286436302</v>
+        <v>6.127617819423054</v>
       </c>
       <c r="D2">
-        <v>9.560592964824071</v>
+        <v>9.439907953142029</v>
       </c>
       <c r="E2">
-        <v>6.759717214577114</v>
+        <v>6.61770841760146</v>
       </c>
       <c r="F2">
-        <v>67.62856766890256</v>
+        <v>67.25326192212532</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.921225400531052</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.421541292853588</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>63.22334380693857</v>
+        <v>4.423808269732963</v>
       </c>
       <c r="K2">
-        <v>7.519520780504784</v>
+        <v>62.86317263854625</v>
       </c>
       <c r="L2">
-        <v>40.2203167905813</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>7.413918533268118</v>
+      </c>
+      <c r="M2">
+        <v>39.98715032863103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.697294302439155</v>
+        <v>5.669082815971283</v>
       </c>
       <c r="D3">
-        <v>8.571231112595932</v>
+        <v>8.472285973670285</v>
       </c>
       <c r="E3">
-        <v>6.465612053783936</v>
+        <v>6.320247119012262</v>
       </c>
       <c r="F3">
-        <v>61.54339046649437</v>
+        <v>61.29803559596132</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.962363114041812</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.687443669717491</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>57.98502817455841</v>
+        <v>4.687661426788635</v>
       </c>
       <c r="K3">
-        <v>7.099848935102243</v>
+        <v>57.67218177400504</v>
       </c>
       <c r="L3">
-        <v>36.87449438660434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>6.99386930988887</v>
+      </c>
+      <c r="M3">
+        <v>36.66845316843854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.423014811647478</v>
+        <v>5.396395919974132</v>
       </c>
       <c r="D4">
-        <v>8.005596164227907</v>
+        <v>8.026956968702571</v>
       </c>
       <c r="E4">
-        <v>6.289363802460958</v>
+        <v>6.141431050058972</v>
       </c>
       <c r="F4">
-        <v>58.01903618778063</v>
+        <v>57.95235032250105</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.986577697801483</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.848698798088601</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>54.73734136570086</v>
+        <v>4.847730340205312</v>
       </c>
       <c r="K4">
-        <v>6.845987692610294</v>
+        <v>54.451857152534</v>
       </c>
       <c r="L4">
-        <v>34.79985966006456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.739249744296175</v>
+      </c>
+      <c r="M4">
+        <v>34.60913973812454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.312873698247341</v>
+        <v>5.286823525218905</v>
       </c>
       <c r="D5">
-        <v>7.827869528833216</v>
+        <v>7.858518433133386</v>
       </c>
       <c r="E5">
-        <v>6.218171957656422</v>
+        <v>6.069085838852117</v>
       </c>
       <c r="F5">
-        <v>56.67463259734532</v>
+        <v>56.64379337370884</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.996278563990852</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.914155934835503</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>53.39924178711624</v>
+        <v>4.912717950319927</v>
       </c>
       <c r="K5">
-        <v>6.742886103957215</v>
+        <v>53.12475272617812</v>
       </c>
       <c r="L5">
-        <v>33.94496856864942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.635730810095911</v>
+      </c>
+      <c r="M5">
+        <v>33.76032100661051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.294667707836965</v>
+        <v>5.2687077390306</v>
       </c>
       <c r="D6">
-        <v>7.798789016000364</v>
+        <v>7.830997760889968</v>
       </c>
       <c r="E6">
-        <v>6.206378392537049</v>
+        <v>6.057094756768693</v>
       </c>
       <c r="F6">
-        <v>56.45300289329457</v>
+        <v>56.42817085059932</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.997881578594466</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.925016182122448</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>53.17600762377268</v>
+        <v>4.923500957537912</v>
       </c>
       <c r="K6">
-        <v>6.725773438165042</v>
+        <v>52.90334106098001</v>
       </c>
       <c r="L6">
-        <v>33.80233992561166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.618542818145833</v>
+      </c>
+      <c r="M6">
+        <v>33.61869397598605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.421523545295245</v>
+        <v>5.394912619434574</v>
       </c>
       <c r="D7">
-        <v>8.003169570314665</v>
+        <v>8.024654478804798</v>
       </c>
       <c r="E7">
-        <v>6.288401614745085</v>
+        <v>6.140453719226762</v>
       </c>
       <c r="F7">
-        <v>58.00079267278566</v>
+        <v>57.93458677624304</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.986709096761585</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.849582308645149</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>54.7193620018121</v>
+        <v>4.848607467614731</v>
       </c>
       <c r="K7">
-        <v>6.844596463710666</v>
+        <v>54.43402641449104</v>
       </c>
       <c r="L7">
-        <v>34.78837341492031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.737853301174143</v>
+      </c>
+      <c r="M7">
+        <v>34.59773590920838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.99743612396299</v>
+        <v>5.96717421990436</v>
       </c>
       <c r="D8">
-        <v>9.213834260671703</v>
+        <v>9.10065587570497</v>
       </c>
       <c r="E8">
-        <v>6.657071346872007</v>
+        <v>6.514026106375701</v>
       </c>
       <c r="F8">
-        <v>65.49351774984042</v>
+        <v>65.16325971961976</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.93569478035461</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.513804504449512</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>61.41884142734039</v>
+        <v>4.515347259486846</v>
       </c>
       <c r="K8">
-        <v>7.373575664625489</v>
+        <v>61.0755418216887</v>
       </c>
       <c r="L8">
-        <v>39.06777634592554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>7.26797117025354</v>
+      </c>
+      <c r="M8">
+        <v>38.84436321998932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.357253901526271</v>
+        <v>7.315612123220815</v>
       </c>
       <c r="D9">
-        <v>11.94680011112175</v>
+        <v>11.77281560515051</v>
       </c>
       <c r="E9">
-        <v>7.451708965564885</v>
+        <v>7.312337775709173</v>
       </c>
       <c r="F9">
-        <v>82.30434490558669</v>
+        <v>81.60817344312964</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.820265319745747</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.826061664737273</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>74.81291259939952</v>
+        <v>3.833288897560873</v>
       </c>
       <c r="K9">
-        <v>8.490094979714332</v>
+        <v>74.31825558605158</v>
       </c>
       <c r="L9">
-        <v>47.62269710725269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>8.380196549055304</v>
+      </c>
+      <c r="M9">
+        <v>47.30938481067559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.666879851015095</v>
+        <v>8.595297657629146</v>
       </c>
       <c r="D10">
-        <v>14.66466225390318</v>
+        <v>14.40288956507662</v>
       </c>
       <c r="E10">
-        <v>8.211440748123561</v>
+        <v>8.060952758417729</v>
       </c>
       <c r="F10">
-        <v>98.80297085596909</v>
+        <v>97.58816639416523</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.703506337322213</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.286825309302546</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>86.45264137343891</v>
+        <v>3.297994396372652</v>
       </c>
       <c r="K10">
-        <v>9.527346222338217</v>
+        <v>85.70320497374422</v>
       </c>
       <c r="L10">
-        <v>55.05650243779072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>9.397763487360358</v>
+      </c>
+      <c r="M10">
+        <v>54.58564461905122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.537460576354986</v>
+        <v>9.415491795700461</v>
       </c>
       <c r="D11">
-        <v>16.61427406506381</v>
+        <v>16.21838468920428</v>
       </c>
       <c r="E11">
-        <v>8.747440891521324</v>
+        <v>8.565264831709785</v>
       </c>
       <c r="F11">
-        <v>110.390970647156</v>
+        <v>108.403701174401</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.621408378249041</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.048273106955236</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>93.88362576191884</v>
+        <v>3.057223488693299</v>
       </c>
       <c r="K11">
-        <v>10.23403921178387</v>
+        <v>92.72459736080417</v>
       </c>
       <c r="L11">
-        <v>59.79787129751146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>10.06334380375104</v>
+      </c>
+      <c r="M11">
+        <v>59.06951726750667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.07393381785068</v>
+        <v>9.871832888090763</v>
       </c>
       <c r="D12">
-        <v>17.88610778888958</v>
+        <v>17.28116282662125</v>
       </c>
       <c r="E12">
-        <v>9.100461802557721</v>
+        <v>8.860741731952352</v>
       </c>
       <c r="F12">
-        <v>117.806547747595</v>
+        <v>114.6312970116201</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.572922400167488</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.227199449820554</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>98.34186197484161</v>
+        <v>3.152167834042378</v>
       </c>
       <c r="K12">
-        <v>10.68304270787623</v>
+        <v>96.53766856082339</v>
       </c>
       <c r="L12">
-        <v>62.63729156315498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>10.44241807239391</v>
+      </c>
+      <c r="M12">
+        <v>61.50123900519569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.930542382435897</v>
+        <v>9.757731592268046</v>
       </c>
       <c r="D13">
-        <v>17.54018384183028</v>
+        <v>17.01149984698187</v>
       </c>
       <c r="E13">
-        <v>9.003787647565471</v>
+        <v>8.785527162062847</v>
       </c>
       <c r="F13">
-        <v>115.8021132627988</v>
+        <v>113.0591330487666</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.585249215038523</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.160022145691496</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>97.15904539909475</v>
+        <v>3.099405639941017</v>
       </c>
       <c r="K13">
-        <v>10.56161552150206</v>
+        <v>95.59044980047739</v>
       </c>
       <c r="L13">
-        <v>61.88455464599947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>10.34682912785659</v>
+      </c>
+      <c r="M13">
+        <v>60.89749779662612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.573038805414779</v>
+        <v>9.447647549847321</v>
       </c>
       <c r="D14">
-        <v>16.69680504937995</v>
+        <v>16.29194274975027</v>
       </c>
       <c r="E14">
-        <v>8.770187334769863</v>
+        <v>8.5856566632308</v>
       </c>
       <c r="F14">
-        <v>110.8758947388451</v>
+        <v>108.837378947498</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.618061324876631</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.041628437467033</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>94.18210390574411</v>
+        <v>3.050265249330931</v>
       </c>
       <c r="K14">
-        <v>10.26341311395879</v>
+        <v>92.99545521060888</v>
       </c>
       <c r="L14">
-        <v>59.98813590820374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>10.08979769410605</v>
+      </c>
+      <c r="M14">
+        <v>59.24235651045008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.3961422887333</v>
+        <v>9.286217111784705</v>
       </c>
       <c r="D15">
-        <v>16.28882247577301</v>
+        <v>15.9245820426282</v>
       </c>
       <c r="E15">
-        <v>8.657866868628853</v>
+        <v>8.483842766238277</v>
       </c>
       <c r="F15">
-        <v>108.473993222015</v>
+        <v>106.6677906504668</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.634762495063389</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.077378303075945</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>92.6940494940491</v>
+        <v>3.087325448500183</v>
       </c>
       <c r="K15">
-        <v>10.11782750448242</v>
+        <v>91.63232505792044</v>
       </c>
       <c r="L15">
-        <v>59.03939576764596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>9.957322104955901</v>
+      </c>
+      <c r="M15">
+        <v>58.3723906608433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.620266013453262</v>
+        <v>8.550316328045012</v>
       </c>
       <c r="D16">
-        <v>14.56376567956721</v>
+        <v>14.30647685181488</v>
       </c>
       <c r="E16">
-        <v>8.183625680842601</v>
+        <v>8.033998574778954</v>
       </c>
       <c r="F16">
-        <v>98.19691363736678</v>
+        <v>97.0082575116994</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.707835461327703</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.303052789538234</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>86.04782573787844</v>
+        <v>3.314163880791667</v>
       </c>
       <c r="K16">
-        <v>9.490011620291138</v>
+        <v>85.3118606408147</v>
       </c>
       <c r="L16">
-        <v>54.79804228626899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>9.361657869883572</v>
+      </c>
+      <c r="M16">
+        <v>54.33560046025986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.239822839647456</v>
+        <v>8.181113390705514</v>
       </c>
       <c r="D17">
-        <v>13.7523437380159</v>
+        <v>13.52652885909844</v>
       </c>
       <c r="E17">
-        <v>7.959090355401393</v>
+        <v>7.814813428395004</v>
       </c>
       <c r="F17">
-        <v>93.30298891199486</v>
+        <v>92.29880943733029</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.742727763184676</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.445454553014007</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>82.71757139612804</v>
+        <v>3.455762410492993</v>
       </c>
       <c r="K17">
-        <v>9.186656242161019</v>
+        <v>82.07521191494351</v>
       </c>
       <c r="L17">
-        <v>52.67145829710483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>9.066410456702314</v>
+      </c>
+      <c r="M17">
+        <v>52.26730287600859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.038554790569798</v>
+        <v>7.984620492692711</v>
       </c>
       <c r="D18">
-        <v>13.33143089879594</v>
+        <v>13.11944375103464</v>
       </c>
       <c r="E18">
-        <v>7.84188106627223</v>
+        <v>7.699476892987773</v>
       </c>
       <c r="F18">
-        <v>90.75131666682607</v>
+        <v>89.82876619494775</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.760843756526048</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.526991792392082</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>80.93685278927339</v>
+        <v>3.536701067947943</v>
       </c>
       <c r="K18">
-        <v>9.027017229254426</v>
+        <v>80.3348987219298</v>
       </c>
       <c r="L18">
-        <v>51.53418163875057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>8.909971474287387</v>
+      </c>
+      <c r="M18">
+        <v>51.15505016542432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.972653399757547</v>
+        <v>7.920145499224995</v>
       </c>
       <c r="D19">
-        <v>13.19482251469789</v>
+        <v>12.98704148360829</v>
       </c>
       <c r="E19">
-        <v>7.803713505854895</v>
+        <v>7.661807939623611</v>
       </c>
       <c r="F19">
-        <v>89.92140109323188</v>
+        <v>89.02375775599418</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.766721104703141</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.554481303963909</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>80.35096149761817</v>
+        <v>3.563976295720224</v>
       </c>
       <c r="K19">
-        <v>8.9748576111811</v>
+        <v>79.76118152983717</v>
       </c>
       <c r="L19">
-        <v>51.15997875179921</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>8.858730679540653</v>
+      </c>
+      <c r="M19">
+        <v>50.78836609707012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.278294192349881</v>
+        <v>8.21859178046213</v>
       </c>
       <c r="D20">
-        <v>13.83344429884937</v>
+        <v>13.60479569066451</v>
       </c>
       <c r="E20">
-        <v>7.981610534153047</v>
+        <v>7.836909307301235</v>
       </c>
       <c r="F20">
-        <v>93.79365896965557</v>
+        <v>92.77279769793009</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.73923704686131</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.430317428618426</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>83.05646139426702</v>
+        <v>3.440728412597652</v>
       </c>
       <c r="K20">
-        <v>9.217232202774753</v>
+        <v>82.40575779560488</v>
       </c>
       <c r="L20">
-        <v>52.88788361329097</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>9.096299719328577</v>
+      </c>
+      <c r="M20">
+        <v>52.47854869287757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.666794203176565</v>
+        <v>9.531478161412153</v>
       </c>
       <c r="D21">
-        <v>16.91546946352659</v>
+        <v>16.48462547443689</v>
       </c>
       <c r="E21">
-        <v>8.830532503627561</v>
+        <v>8.639096270119627</v>
       </c>
       <c r="F21">
-        <v>112.1582882876768</v>
+        <v>109.9715709090834</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.609287207307462</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.037472615773444</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>94.96671587147458</v>
+        <v>3.033157037067825</v>
       </c>
       <c r="K21">
-        <v>10.34106144510251</v>
+        <v>93.70002895428753</v>
       </c>
       <c r="L21">
-        <v>60.48818948628589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>10.15892862857763</v>
+      </c>
+      <c r="M21">
+        <v>59.69189253429333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.666794203176565</v>
+        <v>9.531478161412153</v>
       </c>
       <c r="D22">
-        <v>16.91546946352659</v>
+        <v>16.48462547443689</v>
       </c>
       <c r="E22">
-        <v>8.830532503627561</v>
+        <v>8.639096270119627</v>
       </c>
       <c r="F22">
-        <v>112.1582882876768</v>
+        <v>109.9715709090834</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.609287207307462</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.037472615773444</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>94.96671587147458</v>
+        <v>3.033157037067825</v>
       </c>
       <c r="K22">
-        <v>10.34106144510251</v>
+        <v>93.70002895428753</v>
       </c>
       <c r="L22">
-        <v>60.48818948628589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>10.15892862857763</v>
+      </c>
+      <c r="M22">
+        <v>59.69189253429333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.666794203176565</v>
+        <v>9.531478161412153</v>
       </c>
       <c r="D23">
-        <v>16.91546946352659</v>
+        <v>16.48462547443689</v>
       </c>
       <c r="E23">
-        <v>8.830532503627561</v>
+        <v>8.639096270119627</v>
       </c>
       <c r="F23">
-        <v>112.1582882876768</v>
+        <v>109.9715709090834</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.609287207307462</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.037472615773444</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>94.96671587147458</v>
+        <v>3.033157037067825</v>
       </c>
       <c r="K23">
-        <v>10.34106144510251</v>
+        <v>93.70002895428753</v>
       </c>
       <c r="L23">
-        <v>60.48818948628589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>10.15892862857763</v>
+      </c>
+      <c r="M23">
+        <v>59.69189253429333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.666794203176565</v>
+        <v>9.531478161412153</v>
       </c>
       <c r="D24">
-        <v>16.91546946352659</v>
+        <v>16.48462547443689</v>
       </c>
       <c r="E24">
-        <v>8.830532503627561</v>
+        <v>8.639096270119627</v>
       </c>
       <c r="F24">
-        <v>112.1582882876768</v>
+        <v>109.9715709090834</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.609287207307462</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.037472615773444</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>94.96671587147458</v>
+        <v>3.033157037067825</v>
       </c>
       <c r="K24">
-        <v>10.34106144510251</v>
+        <v>93.70002895428753</v>
       </c>
       <c r="L24">
-        <v>60.48818948628589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>10.15892862857763</v>
+      </c>
+      <c r="M24">
+        <v>59.69189253429333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.666794203176565</v>
+        <v>9.531478161412153</v>
       </c>
       <c r="D25">
-        <v>16.91546946352659</v>
+        <v>16.48462547443689</v>
       </c>
       <c r="E25">
-        <v>8.830532503627561</v>
+        <v>8.639096270119627</v>
       </c>
       <c r="F25">
-        <v>112.1582882876768</v>
+        <v>109.9715709090834</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.609287207307462</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.037472615773444</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>94.96671587147458</v>
+        <v>3.033157037067825</v>
       </c>
       <c r="K25">
-        <v>10.34106144510251</v>
+        <v>93.70002895428753</v>
       </c>
       <c r="L25">
-        <v>60.48818948628589</v>
+        <v>10.15892862857763</v>
+      </c>
+      <c r="M25">
+        <v>59.69189253429333</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.127617819423054</v>
+        <v>5.564431111177178</v>
       </c>
       <c r="D2">
-        <v>9.439907953142029</v>
+        <v>9.536202199468111</v>
       </c>
       <c r="E2">
-        <v>6.61770841760146</v>
+        <v>5.946937234328638</v>
       </c>
       <c r="F2">
-        <v>67.25326192212532</v>
+        <v>66.62744043686068</v>
       </c>
       <c r="G2">
-        <v>1.921225400531052</v>
+        <v>1.942390454526751</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,19 +445,25 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.423808269732963</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>62.86317263854625</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.413918533268118</v>
+        <v>5.595679889027586</v>
       </c>
       <c r="M2">
-        <v>39.98715032863103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>47.26390359889629</v>
+      </c>
+      <c r="N2">
+        <v>15.97792244550691</v>
+      </c>
+      <c r="O2">
+        <v>53.80049587945357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.669082815971283</v>
+        <v>5.594638884031138</v>
       </c>
       <c r="D3">
-        <v>8.472285973670285</v>
+        <v>8.942005506498756</v>
       </c>
       <c r="E3">
-        <v>6.320247119012262</v>
+        <v>6.013838449265506</v>
       </c>
       <c r="F3">
-        <v>61.29803559596132</v>
+        <v>61.31269768080855</v>
       </c>
       <c r="G3">
-        <v>1.962363114041812</v>
+        <v>1.976240033627868</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,19 +492,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.687661426788635</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>57.67218177400504</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.99386930988887</v>
+        <v>5.471800975397793</v>
       </c>
       <c r="M3">
-        <v>36.66845316843854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>43.60508390612232</v>
+      </c>
+      <c r="N3">
+        <v>15.54805749344573</v>
+      </c>
+      <c r="O3">
+        <v>49.54683548693898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.396395919974132</v>
+        <v>5.629500792125935</v>
       </c>
       <c r="D4">
-        <v>8.026956968702571</v>
+        <v>8.600022284689272</v>
       </c>
       <c r="E4">
-        <v>6.141431050058972</v>
+        <v>6.055555810164036</v>
       </c>
       <c r="F4">
-        <v>57.95235032250105</v>
+        <v>58.24793021269519</v>
       </c>
       <c r="G4">
-        <v>1.986577697801483</v>
+        <v>1.996526418832246</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,19 +539,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.847730340205312</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>54.451857152534</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.739249744296175</v>
+        <v>5.397063253877545</v>
       </c>
       <c r="M4">
-        <v>34.60913973812454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>41.29916496451478</v>
+      </c>
+      <c r="N4">
+        <v>15.28232561690802</v>
+      </c>
+      <c r="O4">
+        <v>47.14126413885483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.286823525218905</v>
+        <v>5.647173552764115</v>
       </c>
       <c r="D5">
-        <v>7.858518433133386</v>
+        <v>8.465576003417588</v>
       </c>
       <c r="E5">
-        <v>6.069085838852117</v>
+        <v>6.072785678233977</v>
       </c>
       <c r="F5">
-        <v>56.64379337370884</v>
+        <v>57.00669385968362</v>
       </c>
       <c r="G5">
-        <v>1.996278563990852</v>
+        <v>2.004721765566036</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,19 +586,25 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.912717950319927</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>53.12475272617812</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.635730810095911</v>
+        <v>5.36685396016814</v>
       </c>
       <c r="M5">
-        <v>33.76032100661051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>40.34187592881532</v>
+      </c>
+      <c r="N5">
+        <v>15.17375206676146</v>
+      </c>
+      <c r="O5">
+        <v>46.16969380637288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.2687077390306</v>
+        <v>5.650301323426252</v>
       </c>
       <c r="D6">
-        <v>7.830997760889968</v>
+        <v>8.443528366271154</v>
       </c>
       <c r="E6">
-        <v>6.057094756768693</v>
+        <v>6.075662267059437</v>
       </c>
       <c r="F6">
-        <v>56.42817085059932</v>
+        <v>56.80094514447562</v>
       </c>
       <c r="G6">
-        <v>1.997881578594466</v>
+        <v>2.006079598565484</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,19 +633,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.923500957537912</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>52.90334106098001</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.618542818145833</v>
+        <v>5.361850647511424</v>
       </c>
       <c r="M6">
-        <v>33.61869397598605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>40.18178982516836</v>
+      </c>
+      <c r="N6">
+        <v>15.15571106862561</v>
+      </c>
+      <c r="O6">
+        <v>46.008806793565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.394912619434574</v>
+        <v>5.629725843239988</v>
       </c>
       <c r="D7">
-        <v>8.024654478804798</v>
+        <v>8.598190117030564</v>
       </c>
       <c r="E7">
-        <v>6.140453719226762</v>
+        <v>6.055787168984735</v>
       </c>
       <c r="F7">
-        <v>57.93458677624304</v>
+        <v>58.2311643715236</v>
       </c>
       <c r="G7">
-        <v>1.986709096761585</v>
+        <v>1.996637172488879</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,19 +680,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.848607467614731</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>54.43402641449104</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.737853301174143</v>
+        <v>5.396654934382741</v>
       </c>
       <c r="M7">
-        <v>34.59773590920838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>41.28632896504198</v>
+      </c>
+      <c r="N7">
+        <v>15.28086229532309</v>
+      </c>
+      <c r="O7">
+        <v>47.12812990842338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.96717421990436</v>
+        <v>5.57103200155223</v>
       </c>
       <c r="D8">
-        <v>9.10065587570497</v>
+        <v>9.325988902511567</v>
       </c>
       <c r="E8">
-        <v>6.514026106375701</v>
+        <v>5.969919225266318</v>
       </c>
       <c r="F8">
-        <v>65.16325971961976</v>
+        <v>64.77240880146447</v>
       </c>
       <c r="G8">
-        <v>1.93569478035461</v>
+        <v>1.954201972972304</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,19 +727,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.515347259486846</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>61.0755418216887</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.26797117025354</v>
+        <v>5.55262958440625</v>
       </c>
       <c r="M8">
-        <v>38.84436321998932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>46.01281491678273</v>
+      </c>
+      <c r="N8">
+        <v>15.83017735508772</v>
+      </c>
+      <c r="O8">
+        <v>52.28328303549152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.315612123220815</v>
+        <v>5.624080070395359</v>
       </c>
       <c r="D9">
-        <v>11.77281560515051</v>
+        <v>11.07422982306693</v>
       </c>
       <c r="E9">
-        <v>7.312337775709173</v>
+        <v>5.802184807436007</v>
       </c>
       <c r="F9">
-        <v>81.60817344312964</v>
+        <v>78.64662679570935</v>
       </c>
       <c r="G9">
-        <v>1.820265319745747</v>
+        <v>1.863522982051514</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,19 +774,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.833288897560873</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>74.31825558605158</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>8.380196549055304</v>
+        <v>5.87529299824431</v>
       </c>
       <c r="M9">
-        <v>47.30938481067559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>54.98752555013051</v>
+      </c>
+      <c r="N9">
+        <v>16.88537550213244</v>
+      </c>
+      <c r="O9">
+        <v>63.62765503427832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.595297657629146</v>
+        <v>5.848206677929753</v>
       </c>
       <c r="D10">
-        <v>14.40288956507662</v>
+        <v>12.85009348284693</v>
       </c>
       <c r="E10">
-        <v>8.060952758417729</v>
+        <v>5.669206290323111</v>
       </c>
       <c r="F10">
-        <v>97.58816639416523</v>
+        <v>90.12719212418692</v>
       </c>
       <c r="G10">
-        <v>1.703506337322213</v>
+        <v>1.783898150148548</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,19 +821,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.297994396372652</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>85.70320497374422</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>9.397763487360358</v>
+        <v>6.139230173968998</v>
       </c>
       <c r="M10">
-        <v>54.58564461905122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>61.8307416729291</v>
+      </c>
+      <c r="N10">
+        <v>17.63369196157755</v>
+      </c>
+      <c r="O10">
+        <v>73.01650703276145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.415491795700461</v>
+        <v>6.027533801445909</v>
       </c>
       <c r="D11">
-        <v>16.21838468920428</v>
+        <v>13.79483522733236</v>
       </c>
       <c r="E11">
-        <v>8.565264831709785</v>
+        <v>5.601751541782577</v>
       </c>
       <c r="F11">
-        <v>108.403701174401</v>
+        <v>96.12200172703122</v>
       </c>
       <c r="G11">
-        <v>1.621408378249041</v>
+        <v>1.740471290378863</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,19 +868,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.057223488693299</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>92.72459736080417</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>10.06334380375104</v>
+        <v>6.274466313305095</v>
       </c>
       <c r="M11">
-        <v>59.06951726750667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>65.22122399737955</v>
+      </c>
+      <c r="N11">
+        <v>17.96256226761649</v>
+      </c>
+      <c r="O11">
+        <v>77.92247598338574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.871832888090763</v>
+        <v>6.113532621327251</v>
       </c>
       <c r="D12">
-        <v>17.28116282662125</v>
+        <v>14.19000552514575</v>
       </c>
       <c r="E12">
-        <v>8.860741731952352</v>
+        <v>5.574293538012902</v>
       </c>
       <c r="F12">
-        <v>114.6312970116201</v>
+        <v>98.6050160564987</v>
       </c>
       <c r="G12">
-        <v>1.572922400167488</v>
+        <v>1.722089884805798</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,19 +915,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.152167834042378</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>96.53766856082339</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>10.44241807239391</v>
+        <v>6.329860802429302</v>
       </c>
       <c r="M12">
-        <v>61.50123900519569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>66.59104051445992</v>
+      </c>
+      <c r="N12">
+        <v>18.08426908660346</v>
+      </c>
+      <c r="O12">
+        <v>79.95548865049086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.757731592268046</v>
+        <v>6.094010499276354</v>
       </c>
       <c r="D13">
-        <v>17.01149984698187</v>
+        <v>14.10271347897793</v>
       </c>
       <c r="E13">
-        <v>8.785527162062847</v>
+        <v>5.580317496990164</v>
       </c>
       <c r="F13">
-        <v>113.0591330487666</v>
+        <v>98.05780132826931</v>
       </c>
       <c r="G13">
-        <v>1.585249215038523</v>
+        <v>1.726161140692716</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,19 +962,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.099405639941017</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>95.59044980047739</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>10.34682912785659</v>
+        <v>6.317684807036676</v>
       </c>
       <c r="M13">
-        <v>60.89749779662612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>66.29085558244741</v>
+      </c>
+      <c r="N13">
+        <v>18.05821848358517</v>
+      </c>
+      <c r="O13">
+        <v>79.50739080753476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.447647549847321</v>
+        <v>6.034179893676858</v>
       </c>
       <c r="D14">
-        <v>16.29194274975027</v>
+        <v>13.82642027465362</v>
       </c>
       <c r="E14">
-        <v>8.5856566632308</v>
+        <v>5.599539509753231</v>
       </c>
       <c r="F14">
-        <v>108.837378947498</v>
+        <v>96.32100552670077</v>
       </c>
       <c r="G14">
-        <v>1.618061324876631</v>
+        <v>1.739006760442775</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,19 +1009,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.050265249330931</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>92.99545521060888</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>10.08979769410605</v>
+        <v>6.278919661035158</v>
       </c>
       <c r="M14">
-        <v>59.24235651045008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>65.33174191661179</v>
+      </c>
+      <c r="N14">
+        <v>17.97264374007032</v>
+      </c>
+      <c r="O14">
+        <v>78.08539050708551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.286217111784705</v>
+        <v>6.000213882991394</v>
       </c>
       <c r="D15">
-        <v>15.9245820426282</v>
+        <v>13.66291455888587</v>
       </c>
       <c r="E15">
-        <v>8.483842766238277</v>
+        <v>5.611022029547784</v>
       </c>
       <c r="F15">
-        <v>106.6677906504668</v>
+        <v>95.2898190510566</v>
       </c>
       <c r="G15">
-        <v>1.634762495063389</v>
+        <v>1.746579372099166</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,19 +1056,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.087325448500183</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>91.63232505792044</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>9.957322104955901</v>
+        <v>6.255817910689375</v>
       </c>
       <c r="M15">
-        <v>58.3723906608433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>64.75767155071594</v>
+      </c>
+      <c r="N15">
+        <v>17.91980053037664</v>
+      </c>
+      <c r="O15">
+        <v>77.24125149850714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.550316328045012</v>
+        <v>5.838504958714732</v>
       </c>
       <c r="D16">
-        <v>14.30647685181488</v>
+        <v>12.79224817734934</v>
       </c>
       <c r="E16">
-        <v>8.033998574778954</v>
+        <v>5.673413688206827</v>
       </c>
       <c r="F16">
-        <v>97.0082575116994</v>
+        <v>89.7575230604173</v>
       </c>
       <c r="G16">
-        <v>1.707835461327703</v>
+        <v>1.786533122303888</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,19 +1103,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.314163880791667</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>85.3118606408147</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>9.361657869883572</v>
+        <v>6.130825003347896</v>
       </c>
       <c r="M16">
-        <v>54.33560046025986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>61.61771416642468</v>
+      </c>
+      <c r="N16">
+        <v>17.61189293661399</v>
+      </c>
+      <c r="O16">
+        <v>72.71407669790874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.181113390705514</v>
+        <v>5.7624336476978</v>
       </c>
       <c r="D17">
-        <v>13.52652885909844</v>
+        <v>12.30124648780328</v>
       </c>
       <c r="E17">
-        <v>7.814813428395004</v>
+        <v>5.709467547927948</v>
       </c>
       <c r="F17">
-        <v>92.29880943733029</v>
+        <v>86.60786422729979</v>
       </c>
       <c r="G17">
-        <v>1.742727763184676</v>
+        <v>1.808786980562493</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,19 +1150,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.455762410492993</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>82.07521191494351</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>9.066410456702314</v>
+        <v>6.058926997221493</v>
       </c>
       <c r="M17">
-        <v>52.26730287600859</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>59.78348720159376</v>
+      </c>
+      <c r="N17">
+        <v>17.41952215808944</v>
+      </c>
+      <c r="O17">
+        <v>70.13767951201858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.984620492692711</v>
+        <v>5.725383309104836</v>
       </c>
       <c r="D18">
-        <v>13.11944375103464</v>
+        <v>12.03021904884615</v>
       </c>
       <c r="E18">
-        <v>7.699476892987773</v>
+        <v>5.729626009700981</v>
       </c>
       <c r="F18">
-        <v>89.82876619494775</v>
+        <v>84.8603300142434</v>
       </c>
       <c r="G18">
-        <v>1.760843756526048</v>
+        <v>1.820984737964415</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,19 +1197,25 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.536701067947943</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>80.3348987219298</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.909971474287387</v>
+        <v>6.018830752947313</v>
       </c>
       <c r="M18">
-        <v>51.15505016542432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>58.75071448830461</v>
+      </c>
+      <c r="N18">
+        <v>17.30788679627706</v>
+      </c>
+      <c r="O18">
+        <v>68.70846454855688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.920145499224995</v>
+        <v>5.713862230107427</v>
       </c>
       <c r="D19">
-        <v>12.98704148360829</v>
+        <v>11.94010275349317</v>
       </c>
       <c r="E19">
-        <v>7.661807939623611</v>
+        <v>5.736368838019881</v>
       </c>
       <c r="F19">
-        <v>89.02375775599418</v>
+        <v>84.27788320980599</v>
       </c>
       <c r="G19">
-        <v>1.766721104703141</v>
+        <v>1.825026916358382</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,19 +1244,25 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.563976295720224</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>79.76118152983717</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.858730679540653</v>
+        <v>6.005437006733287</v>
       </c>
       <c r="M19">
-        <v>50.78836609707012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>58.40405570553976</v>
+      </c>
+      <c r="N19">
+        <v>17.2699389426202</v>
+      </c>
+      <c r="O19">
+        <v>68.23214718448676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.21859178046213</v>
+        <v>5.769805308031942</v>
       </c>
       <c r="D20">
-        <v>13.60479569066451</v>
+        <v>12.35225791468069</v>
       </c>
       <c r="E20">
-        <v>7.836909307301235</v>
+        <v>5.705693749190846</v>
       </c>
       <c r="F20">
-        <v>92.77279769793009</v>
+        <v>86.93606861936429</v>
       </c>
       <c r="G20">
-        <v>1.73923704686131</v>
+        <v>1.806484329293149</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,19 +1291,25 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.440728412597652</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>82.40575779560488</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>9.096299719328577</v>
+        <v>6.066441822888777</v>
       </c>
       <c r="M20">
-        <v>52.47854869287757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>59.97623960970103</v>
+      </c>
+      <c r="N20">
+        <v>17.4401077500703</v>
+      </c>
+      <c r="O20">
+        <v>70.40611921550784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.531478161412153</v>
+        <v>6.051170066143741</v>
       </c>
       <c r="D21">
-        <v>16.48462547443689</v>
+        <v>13.90631398380637</v>
       </c>
       <c r="E21">
-        <v>8.639096270119627</v>
+        <v>5.593957443920628</v>
       </c>
       <c r="F21">
-        <v>109.9715709090834</v>
+        <v>96.82396342373588</v>
       </c>
       <c r="G21">
-        <v>1.609287207307462</v>
+        <v>1.735298641925838</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,19 +1338,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.033157037067825</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>93.70002895428753</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>10.15892862857763</v>
+        <v>6.290164355150727</v>
       </c>
       <c r="M21">
-        <v>59.69189253429333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>65.61049090991735</v>
+      </c>
+      <c r="N21">
+        <v>17.99787242443331</v>
+      </c>
+      <c r="O21">
+        <v>78.49715487672697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.531478161412153</v>
+        <v>6.352266023762951</v>
       </c>
       <c r="D22">
-        <v>16.48462547443689</v>
+        <v>15.17235609103098</v>
       </c>
       <c r="E22">
-        <v>8.639096270119627</v>
+        <v>5.508305669219117</v>
       </c>
       <c r="F22">
-        <v>109.9715709090834</v>
+        <v>104.7116672528851</v>
       </c>
       <c r="G22">
-        <v>1.609287207307462</v>
+        <v>1.675857704145583</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,19 +1385,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.033157037067825</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>93.70002895428753</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>10.15892862857763</v>
+        <v>6.464517005576567</v>
       </c>
       <c r="M22">
-        <v>59.69189253429333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>69.87709605938173</v>
+      </c>
+      <c r="N22">
+        <v>18.34364566066715</v>
+      </c>
+      <c r="O22">
+        <v>84.95845388246927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.531478161412153</v>
+        <v>6.175713894766505</v>
       </c>
       <c r="D23">
-        <v>16.48462547443689</v>
+        <v>14.45991215875318</v>
       </c>
       <c r="E23">
-        <v>8.639096270119627</v>
+        <v>5.555823463256942</v>
       </c>
       <c r="F23">
-        <v>109.9715709090834</v>
+        <v>100.2923556572449</v>
       </c>
       <c r="G23">
-        <v>1.609287207307462</v>
+        <v>1.709462988975714</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,19 +1432,25 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.033157037067825</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>93.70002895428753</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>10.15892862857763</v>
+        <v>6.367291254993673</v>
       </c>
       <c r="M23">
-        <v>59.69189253429333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>67.51067489816299</v>
+      </c>
+      <c r="N23">
+        <v>18.16177204179089</v>
+      </c>
+      <c r="O23">
+        <v>81.33741163186484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.531478161412153</v>
+        <v>5.766452164412248</v>
       </c>
       <c r="D24">
-        <v>16.48462547443689</v>
+        <v>12.32916158399525</v>
       </c>
       <c r="E24">
-        <v>8.639096270119627</v>
+        <v>5.707401603582103</v>
       </c>
       <c r="F24">
-        <v>109.9715709090834</v>
+        <v>86.78749614436677</v>
       </c>
       <c r="G24">
-        <v>1.609287207307462</v>
+        <v>1.807527164542342</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,19 +1479,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.033157037067825</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>93.70002895428753</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.15892862857763</v>
+        <v>6.063040622405119</v>
       </c>
       <c r="M24">
-        <v>59.69189253429333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>59.88903108942563</v>
+      </c>
+      <c r="N24">
+        <v>17.43080417546027</v>
+      </c>
+      <c r="O24">
+        <v>70.28460040829445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.531478161412153</v>
+        <v>5.58517991462532</v>
       </c>
       <c r="D25">
-        <v>16.48462547443689</v>
+        <v>10.50578370527809</v>
       </c>
       <c r="E25">
-        <v>8.639096270119627</v>
+        <v>5.848263464694021</v>
       </c>
       <c r="F25">
-        <v>109.9715709090834</v>
+        <v>74.7631157960531</v>
       </c>
       <c r="G25">
-        <v>1.609287207307462</v>
+        <v>1.889475962208187</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.033157037067825</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>93.70002895428753</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>10.15892862857763</v>
+        <v>5.785040775966046</v>
       </c>
       <c r="M25">
-        <v>59.69189253429333</v>
+        <v>52.55959423115289</v>
+      </c>
+      <c r="N25">
+        <v>16.6034389636028</v>
+      </c>
+      <c r="O25">
+        <v>60.45263038349387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.564431111177178</v>
+        <v>3.750234113994231</v>
       </c>
       <c r="D2">
-        <v>9.536202199468111</v>
+        <v>5.845034881616438</v>
       </c>
       <c r="E2">
-        <v>5.946937234328638</v>
+        <v>6.615316481264573</v>
       </c>
       <c r="F2">
-        <v>66.62744043686068</v>
+        <v>38.99730769372289</v>
       </c>
       <c r="G2">
-        <v>1.942390454526751</v>
+        <v>2.115594041482959</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30.78006620154746</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.46824601132783</v>
       </c>
       <c r="L2">
-        <v>5.595679889027586</v>
+        <v>5.555595180852329</v>
       </c>
       <c r="M2">
-        <v>47.26390359889629</v>
+        <v>15.82964902997355</v>
       </c>
       <c r="N2">
-        <v>15.97792244550691</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>53.80049587945357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.594638884031138</v>
+        <v>3.654574025238587</v>
       </c>
       <c r="D3">
-        <v>8.942005506498756</v>
+        <v>5.946340343083042</v>
       </c>
       <c r="E3">
-        <v>6.013838449265506</v>
+        <v>6.566864059157913</v>
       </c>
       <c r="F3">
-        <v>61.31269768080855</v>
+        <v>37.60724288116561</v>
       </c>
       <c r="G3">
-        <v>1.976240033627868</v>
+        <v>2.127376339891428</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29.90126614872006</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.00498737103926</v>
       </c>
       <c r="L3">
-        <v>5.471800975397793</v>
+        <v>5.580359561340902</v>
       </c>
       <c r="M3">
-        <v>43.60508390612232</v>
+        <v>15.06213682079294</v>
       </c>
       <c r="N3">
-        <v>15.54805749344573</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>49.54683548693898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.629500792125935</v>
+        <v>3.596285458053535</v>
       </c>
       <c r="D4">
-        <v>8.600022284689272</v>
+        <v>6.010312015556118</v>
       </c>
       <c r="E4">
-        <v>6.055555810164036</v>
+        <v>6.540651596398191</v>
       </c>
       <c r="F4">
-        <v>58.24793021269519</v>
+        <v>36.77240749561415</v>
       </c>
       <c r="G4">
-        <v>1.996526418832246</v>
+        <v>2.134759163916907</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>29.3816796480198</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.1295040584747</v>
       </c>
       <c r="L4">
-        <v>5.397063253877545</v>
+        <v>5.597810676370458</v>
       </c>
       <c r="M4">
-        <v>41.29916496451478</v>
+        <v>14.58378870375371</v>
       </c>
       <c r="N4">
-        <v>15.28232561690802</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>47.14126413885483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.647173552764115</v>
+        <v>3.572670408143539</v>
       </c>
       <c r="D5">
-        <v>8.465576003417588</v>
+        <v>6.036821097792035</v>
       </c>
       <c r="E5">
-        <v>6.072785678233977</v>
+        <v>6.530832870702147</v>
       </c>
       <c r="F5">
-        <v>57.00669385968362</v>
+        <v>36.4370405268806</v>
       </c>
       <c r="G5">
-        <v>2.004721765566036</v>
+        <v>2.137808242275163</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>29.17494889870063</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.78989264955473</v>
       </c>
       <c r="L5">
-        <v>5.36685396016814</v>
+        <v>5.605469243646818</v>
       </c>
       <c r="M5">
-        <v>40.34187592881532</v>
+        <v>14.38727848389629</v>
       </c>
       <c r="N5">
-        <v>15.17375206676146</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>46.16969380637288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.650301323426252</v>
+        <v>3.568758267310233</v>
       </c>
       <c r="D6">
-        <v>8.443528366271154</v>
+        <v>6.041249391454649</v>
       </c>
       <c r="E6">
-        <v>6.075662267059437</v>
+        <v>6.529253843031927</v>
       </c>
       <c r="F6">
-        <v>56.80094514447562</v>
+        <v>36.38164976922764</v>
       </c>
       <c r="G6">
-        <v>2.006079598565484</v>
+        <v>2.138317074850908</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>29.14092307982121</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.73307720235605</v>
       </c>
       <c r="L6">
-        <v>5.361850647511424</v>
+        <v>5.606773497264207</v>
       </c>
       <c r="M6">
-        <v>40.18178982516836</v>
+        <v>14.35455955876278</v>
       </c>
       <c r="N6">
-        <v>15.15571106862561</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>46.008806793565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.629725843239988</v>
+        <v>3.595966383194096</v>
       </c>
       <c r="D7">
-        <v>8.598190117030564</v>
+        <v>6.010667749142766</v>
       </c>
       <c r="E7">
-        <v>6.055787168984735</v>
+        <v>6.540515717632771</v>
       </c>
       <c r="F7">
-        <v>58.2311643715236</v>
+        <v>36.76786483515546</v>
       </c>
       <c r="G7">
-        <v>1.996637172488879</v>
+        <v>2.134800116772989</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>29.37887136810364</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.12495244599374</v>
       </c>
       <c r="L7">
-        <v>5.396654934382741</v>
+        <v>5.597911769575068</v>
       </c>
       <c r="M7">
-        <v>41.28632896504198</v>
+        <v>14.5811445906468</v>
       </c>
       <c r="N7">
-        <v>15.28086229532309</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>47.12812990842338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.57103200155223</v>
+        <v>3.717172408130192</v>
       </c>
       <c r="D8">
-        <v>9.325988902511567</v>
+        <v>5.879593996671705</v>
       </c>
       <c r="E8">
-        <v>5.969919225266318</v>
+        <v>6.597859704813002</v>
       </c>
       <c r="F8">
-        <v>64.77240880146447</v>
+        <v>38.51421193429521</v>
       </c>
       <c r="G8">
-        <v>1.954201972972304</v>
+        <v>2.119627775752834</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>30.47288737997994</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.97304517185013</v>
       </c>
       <c r="L8">
-        <v>5.55262958440625</v>
+        <v>5.563656818178154</v>
       </c>
       <c r="M8">
-        <v>46.01281491678273</v>
+        <v>15.56659100763414</v>
       </c>
       <c r="N8">
-        <v>15.83017735508772</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>52.28328303549152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.624080070395359</v>
+        <v>3.957408357393067</v>
       </c>
       <c r="D9">
-        <v>11.07422982306693</v>
+        <v>5.636970467744725</v>
       </c>
       <c r="E9">
-        <v>5.802184807436007</v>
+        <v>6.739624134463723</v>
       </c>
       <c r="F9">
-        <v>78.64662679570935</v>
+        <v>42.08313564742971</v>
       </c>
       <c r="G9">
-        <v>1.863522982051514</v>
+        <v>2.090892740212058</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32.77892251948586</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.38081012672054</v>
       </c>
       <c r="L9">
-        <v>5.87529299824431</v>
+        <v>5.515172411399464</v>
       </c>
       <c r="M9">
-        <v>54.98752555013051</v>
+        <v>17.43625175015174</v>
       </c>
       <c r="N9">
-        <v>16.88537550213244</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>63.62765503427832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.848206677929753</v>
+        <v>4.134363070414137</v>
       </c>
       <c r="D10">
-        <v>12.85009348284693</v>
+        <v>5.468330849403585</v>
       </c>
       <c r="E10">
-        <v>5.669206290323111</v>
+        <v>6.863495919723301</v>
       </c>
       <c r="F10">
-        <v>90.12719212418692</v>
+        <v>44.79310623558063</v>
       </c>
       <c r="G10">
-        <v>1.783898150148548</v>
+        <v>2.070150226542005</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.57621955682956</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.68385414542641</v>
       </c>
       <c r="L10">
-        <v>6.139230173968998</v>
+        <v>5.492291407956847</v>
       </c>
       <c r="M10">
-        <v>61.8307416729291</v>
+        <v>19.06058032547316</v>
       </c>
       <c r="N10">
-        <v>17.63369196157755</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>73.01650703276145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.027533801445909</v>
+        <v>4.214807155200711</v>
       </c>
       <c r="D11">
-        <v>13.79483522733236</v>
+        <v>5.394012039221504</v>
       </c>
       <c r="E11">
-        <v>5.601751541782577</v>
+        <v>6.924583292847608</v>
       </c>
       <c r="F11">
-        <v>96.12200172703122</v>
+        <v>46.04676403236643</v>
       </c>
       <c r="G11">
-        <v>1.740471290378863</v>
+        <v>2.060728628845129</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.41827536015555</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.69158374728462</v>
       </c>
       <c r="L11">
-        <v>6.274466313305095</v>
+        <v>5.484992833328917</v>
       </c>
       <c r="M11">
-        <v>65.22122399737955</v>
+        <v>19.80600799742171</v>
       </c>
       <c r="N11">
-        <v>17.96256226761649</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>77.92247598338574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.113532621327251</v>
+        <v>4.245254470779464</v>
       </c>
       <c r="D12">
-        <v>14.19000552514575</v>
+        <v>5.366253030804615</v>
       </c>
       <c r="E12">
-        <v>5.574293538012902</v>
+        <v>6.948439381577488</v>
       </c>
       <c r="F12">
-        <v>98.6050160564987</v>
+        <v>46.52477930055545</v>
       </c>
       <c r="G12">
-        <v>1.722089884805798</v>
+        <v>2.057156602570489</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.74091006976631</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>27.06778402581406</v>
       </c>
       <c r="L12">
-        <v>6.329860802429302</v>
+        <v>5.482709351696945</v>
       </c>
       <c r="M12">
-        <v>66.59104051445992</v>
+        <v>20.08428568536167</v>
       </c>
       <c r="N12">
-        <v>18.08426908660346</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>79.95548865049086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.094010499276354</v>
+        <v>4.238697831311582</v>
       </c>
       <c r="D13">
-        <v>14.10271347897793</v>
+        <v>5.372213592324753</v>
       </c>
       <c r="E13">
-        <v>5.580317496990164</v>
+        <v>6.943268627492211</v>
       </c>
       <c r="F13">
-        <v>98.05780132826931</v>
+        <v>46.42167831019474</v>
       </c>
       <c r="G13">
-        <v>1.726161140692716</v>
+        <v>2.057926202917507</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.67125251528862</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.9869970927242</v>
       </c>
       <c r="L13">
-        <v>6.317684807036676</v>
+        <v>5.483179204940631</v>
       </c>
       <c r="M13">
-        <v>66.29085558244741</v>
+        <v>20.02452711234005</v>
       </c>
       <c r="N13">
-        <v>18.05821848358517</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>79.50739080753476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.034179893676858</v>
+        <v>4.217312401103011</v>
       </c>
       <c r="D14">
-        <v>13.82642027465362</v>
+        <v>5.391720324291384</v>
       </c>
       <c r="E14">
-        <v>5.599539509753231</v>
+        <v>6.926531182439748</v>
       </c>
       <c r="F14">
-        <v>96.32100552670077</v>
+        <v>46.08602278292383</v>
       </c>
       <c r="G14">
-        <v>1.739006760442775</v>
+        <v>2.06043488120222</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.44474149621822</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.72264020079412</v>
       </c>
       <c r="L14">
-        <v>6.278919661035158</v>
+        <v>5.484795138717788</v>
       </c>
       <c r="M14">
-        <v>65.33174191661179</v>
+        <v>19.82898066374926</v>
       </c>
       <c r="N14">
-        <v>17.97264374007032</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>78.08539050708551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.000213882991394</v>
+        <v>4.20421110735076</v>
       </c>
       <c r="D15">
-        <v>13.66291455888587</v>
+        <v>5.403720138940848</v>
       </c>
       <c r="E15">
-        <v>5.611022029547784</v>
+        <v>6.916374603666167</v>
       </c>
       <c r="F15">
-        <v>95.2898190510566</v>
+        <v>45.88086206761739</v>
       </c>
       <c r="G15">
-        <v>1.746579372099166</v>
+        <v>2.06197075953097</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35.30649629705447</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.56002086157771</v>
       </c>
       <c r="L15">
-        <v>6.255817910689375</v>
+        <v>5.485848552096392</v>
       </c>
       <c r="M15">
-        <v>64.75767155071594</v>
+        <v>19.70869000893703</v>
       </c>
       <c r="N15">
-        <v>17.91980053037664</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>77.24125149850714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.838504958714732</v>
+        <v>4.129104033511518</v>
       </c>
       <c r="D16">
-        <v>12.79224817734934</v>
+        <v>5.473239063761709</v>
       </c>
       <c r="E16">
-        <v>5.673413688206827</v>
+        <v>6.859602547957923</v>
       </c>
       <c r="F16">
-        <v>89.7575230604173</v>
+        <v>44.71161789938386</v>
       </c>
       <c r="G16">
-        <v>1.786533122303888</v>
+        <v>2.070765716940512</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.52170084369926</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.6172209023724</v>
       </c>
       <c r="L16">
-        <v>6.130825003347896</v>
+        <v>5.492833706399567</v>
       </c>
       <c r="M16">
-        <v>61.61771416642468</v>
+        <v>19.01129070098127</v>
       </c>
       <c r="N16">
-        <v>17.61189293661399</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>72.71407669790874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.7624336476978</v>
+        <v>4.083007706408923</v>
       </c>
       <c r="D17">
-        <v>12.30124648780328</v>
+        <v>5.516524681531909</v>
       </c>
       <c r="E17">
-        <v>5.709467547927948</v>
+        <v>6.826016632874837</v>
       </c>
       <c r="F17">
-        <v>86.60786422729979</v>
+        <v>43.9998314972803</v>
       </c>
       <c r="G17">
-        <v>1.808786980562493</v>
+        <v>2.076160568897047</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.04667067152378</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>25.02884181455346</v>
       </c>
       <c r="L17">
-        <v>6.058926997221493</v>
+        <v>5.497937727352632</v>
       </c>
       <c r="M17">
-        <v>59.78348720159376</v>
+        <v>18.57605477195965</v>
       </c>
       <c r="N17">
-        <v>17.41952215808944</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>70.13767951201858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.725383309104836</v>
+        <v>4.056489428755949</v>
       </c>
       <c r="D18">
-        <v>12.03021904884615</v>
+        <v>5.541643973953572</v>
       </c>
       <c r="E18">
-        <v>5.729626009700981</v>
+        <v>6.807142000602645</v>
       </c>
       <c r="F18">
-        <v>84.8603300142434</v>
+        <v>43.59237199942665</v>
       </c>
       <c r="G18">
-        <v>1.820984737964415</v>
+        <v>2.079265315931778</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.77572846126071</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.68664008213875</v>
       </c>
       <c r="L18">
-        <v>6.018830752947313</v>
+        <v>5.50116395506767</v>
       </c>
       <c r="M18">
-        <v>58.75071448830461</v>
+        <v>18.32291815896553</v>
       </c>
       <c r="N18">
-        <v>17.30788679627706</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>68.70846454855688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.713862230107427</v>
+        <v>4.047510264220459</v>
       </c>
       <c r="D19">
-        <v>11.94010275349317</v>
+        <v>5.550186152458267</v>
       </c>
       <c r="E19">
-        <v>5.736368838019881</v>
+        <v>6.800826270721705</v>
       </c>
       <c r="F19">
-        <v>84.27788320980599</v>
+        <v>43.45474015177782</v>
       </c>
       <c r="G19">
-        <v>1.825026916358382</v>
+        <v>2.080317012537143</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.68437781897333</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.57011736161174</v>
       </c>
       <c r="L19">
-        <v>6.005437006733287</v>
+        <v>5.502305256556959</v>
       </c>
       <c r="M19">
-        <v>58.40405570553976</v>
+        <v>18.2367222702448</v>
       </c>
       <c r="N19">
-        <v>17.2699389426202</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>68.23214718448676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.769805308031942</v>
+        <v>4.08791531510929</v>
       </c>
       <c r="D20">
-        <v>12.35225791468069</v>
+        <v>5.511893574155562</v>
       </c>
       <c r="E20">
-        <v>5.705693749190846</v>
+        <v>6.829545761962243</v>
       </c>
       <c r="F20">
-        <v>86.93606861936429</v>
+        <v>44.07539984622937</v>
       </c>
       <c r="G20">
-        <v>1.806484329293149</v>
+        <v>2.075586137402876</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.09700065706728</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.09186485029486</v>
       </c>
       <c r="L20">
-        <v>6.066441822888777</v>
+        <v>5.497364100181455</v>
       </c>
       <c r="M20">
-        <v>59.97623960970103</v>
+        <v>18.62267447920803</v>
       </c>
       <c r="N20">
-        <v>17.4401077500703</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>70.40611921550784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.051170066143741</v>
+        <v>4.223594263895809</v>
       </c>
       <c r="D21">
-        <v>13.90631398380637</v>
+        <v>5.385979928588972</v>
       </c>
       <c r="E21">
-        <v>5.593957443920628</v>
+        <v>6.931427371285738</v>
       </c>
       <c r="F21">
-        <v>96.82396342373588</v>
+        <v>46.18452098391496</v>
       </c>
       <c r="G21">
-        <v>1.735298641925838</v>
+        <v>2.05969819247634</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.51116864430861</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.80043200402244</v>
       </c>
       <c r="L21">
-        <v>6.290164355150727</v>
+        <v>5.484307178958326</v>
       </c>
       <c r="M21">
-        <v>65.61049090991735</v>
+        <v>19.88652376667165</v>
       </c>
       <c r="N21">
-        <v>17.99787242443331</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>78.49715487672697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.352266023762951</v>
+        <v>4.31218058890446</v>
       </c>
       <c r="D22">
-        <v>15.17235609103098</v>
+        <v>5.305953850416681</v>
       </c>
       <c r="E22">
-        <v>5.508305669219117</v>
+        <v>7.00225470774715</v>
       </c>
       <c r="F22">
-        <v>104.7116672528851</v>
+        <v>47.58231339310488</v>
       </c>
       <c r="G22">
-        <v>1.675857704145583</v>
+        <v>2.04928597299451</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>36.45754280974464</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.88576540130691</v>
       </c>
       <c r="L22">
-        <v>6.464517005576567</v>
+        <v>5.478592005519485</v>
       </c>
       <c r="M22">
-        <v>69.87709605938173</v>
+        <v>20.6893515630892</v>
       </c>
       <c r="N22">
-        <v>18.34364566066715</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>84.95845388246927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.175713894766505</v>
+        <v>4.264909498982418</v>
       </c>
       <c r="D23">
-        <v>14.45991215875318</v>
+        <v>5.34844149116512</v>
       </c>
       <c r="E23">
-        <v>5.555823463256942</v>
+        <v>6.964049170344339</v>
       </c>
       <c r="F23">
-        <v>100.2923556572449</v>
+        <v>46.83438610536351</v>
       </c>
       <c r="G23">
-        <v>1.709462988975714</v>
+        <v>2.054848118783139</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>35.95031456650371</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.30924401615995</v>
       </c>
       <c r="L23">
-        <v>6.367291254993673</v>
+        <v>5.481372351880158</v>
       </c>
       <c r="M23">
-        <v>67.51067489816299</v>
+        <v>20.26289504661095</v>
       </c>
       <c r="N23">
-        <v>18.16177204179089</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>81.33741163186484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.766452164412248</v>
+        <v>4.085696637169199</v>
       </c>
       <c r="D24">
-        <v>12.32916158399525</v>
+        <v>5.513986572336863</v>
       </c>
       <c r="E24">
-        <v>5.707401603582103</v>
+        <v>6.827948892897498</v>
       </c>
       <c r="F24">
-        <v>86.78749614436677</v>
+        <v>44.04122994555328</v>
       </c>
       <c r="G24">
-        <v>1.807527164542342</v>
+        <v>2.075845827527718</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.07423976363039</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.06338441663477</v>
       </c>
       <c r="L24">
-        <v>6.063040622405119</v>
+        <v>5.497622530402464</v>
       </c>
       <c r="M24">
-        <v>59.88903108942563</v>
+        <v>18.60160680369075</v>
       </c>
       <c r="N24">
-        <v>17.43080417546027</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>70.28460040829445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.58517991462532</v>
+        <v>3.892271723069451</v>
       </c>
       <c r="D25">
-        <v>10.50578370527809</v>
+        <v>5.700997818139525</v>
       </c>
       <c r="E25">
-        <v>5.848263464694021</v>
+        <v>6.697952240899325</v>
       </c>
       <c r="F25">
-        <v>74.7631157960531</v>
+        <v>41.10247750146138</v>
       </c>
       <c r="G25">
-        <v>1.889475962208187</v>
+        <v>2.098581512556351</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>32.13748545317795</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.49525894834488</v>
       </c>
       <c r="L25">
-        <v>5.785040775966046</v>
+        <v>5.526157624836311</v>
       </c>
       <c r="M25">
-        <v>52.55959423115289</v>
+        <v>16.9378986768304</v>
       </c>
       <c r="N25">
-        <v>16.6034389636028</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>60.45263038349387</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.750234113994231</v>
+        <v>6.63718292801021</v>
       </c>
       <c r="D2">
-        <v>5.845034881616438</v>
+        <v>8.93459740334325</v>
       </c>
       <c r="E2">
-        <v>6.615316481264573</v>
+        <v>10.96374181033933</v>
       </c>
       <c r="F2">
-        <v>38.99730769372289</v>
+        <v>44.44119803542744</v>
       </c>
       <c r="G2">
-        <v>2.115594041482959</v>
+        <v>3.743964081058378</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.78006620154746</v>
+        <v>37.95340611643464</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.46824601132783</v>
+        <v>19.57135239643369</v>
       </c>
       <c r="L2">
-        <v>5.555595180852329</v>
+        <v>9.424842787455148</v>
       </c>
       <c r="M2">
-        <v>15.82964902997355</v>
+        <v>19.86435596176544</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.654574025238587</v>
+        <v>6.63946683161606</v>
       </c>
       <c r="D3">
-        <v>5.946340343083042</v>
+        <v>8.962783197479377</v>
       </c>
       <c r="E3">
-        <v>6.566864059157913</v>
+        <v>10.98157163812049</v>
       </c>
       <c r="F3">
-        <v>37.60724288116561</v>
+        <v>44.27765426140905</v>
       </c>
       <c r="G3">
-        <v>2.127376339891428</v>
+        <v>3.748030053671211</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.90126614872006</v>
+        <v>37.89105351662516</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.00498737103926</v>
+        <v>19.30215532147275</v>
       </c>
       <c r="L3">
-        <v>5.580359561340902</v>
+        <v>9.445332836830747</v>
       </c>
       <c r="M3">
-        <v>15.06213682079294</v>
+        <v>19.77687252305352</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.596285458053535</v>
+        <v>6.641812053616699</v>
       </c>
       <c r="D4">
-        <v>6.010312015556118</v>
+        <v>8.980963041199407</v>
       </c>
       <c r="E4">
-        <v>6.540651596398191</v>
+        <v>10.99402296886452</v>
       </c>
       <c r="F4">
-        <v>36.77240749561415</v>
+        <v>44.18877103296594</v>
       </c>
       <c r="G4">
-        <v>2.134759163916907</v>
+        <v>3.750654125121094</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.3816796480198</v>
+        <v>37.86180507877312</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.1295040584747</v>
+        <v>19.14067235887818</v>
       </c>
       <c r="L4">
-        <v>5.597810676370458</v>
+        <v>9.458892998494637</v>
       </c>
       <c r="M4">
-        <v>14.58378870375371</v>
+        <v>19.72769604185668</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.572670408143539</v>
+        <v>6.64300574626817</v>
       </c>
       <c r="D5">
-        <v>6.036821097792035</v>
+        <v>8.988591245522064</v>
       </c>
       <c r="E5">
-        <v>6.530832870702147</v>
+        <v>10.99947504515762</v>
       </c>
       <c r="F5">
-        <v>36.4370405268806</v>
+        <v>44.15546271921467</v>
       </c>
       <c r="G5">
-        <v>2.137808242275163</v>
+        <v>3.751755656151877</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.17494889870063</v>
+        <v>37.85215685432532</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.78989264955473</v>
+        <v>19.07590767195866</v>
       </c>
       <c r="L5">
-        <v>5.605469243646818</v>
+        <v>9.4646652782489</v>
       </c>
       <c r="M5">
-        <v>14.38727848389629</v>
+        <v>19.70881269765286</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.568758267310233</v>
+        <v>6.643218357609397</v>
       </c>
       <c r="D6">
-        <v>6.041249391454649</v>
+        <v>8.989871179255703</v>
       </c>
       <c r="E6">
-        <v>6.529253843031927</v>
+        <v>11.00040318942128</v>
       </c>
       <c r="F6">
-        <v>36.38164976922764</v>
+        <v>44.15010807430304</v>
       </c>
       <c r="G6">
-        <v>2.138317074850908</v>
+        <v>3.751940513124494</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.14092307982121</v>
+        <v>37.85069183815769</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.73307720235605</v>
+        <v>19.06521883349383</v>
       </c>
       <c r="L6">
-        <v>5.606773497264207</v>
+        <v>9.465638648393096</v>
       </c>
       <c r="M6">
-        <v>14.35455955876278</v>
+        <v>19.70574739451326</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.595966383194096</v>
+        <v>6.641827187380327</v>
       </c>
       <c r="D7">
-        <v>6.010667749142766</v>
+        <v>8.981065027907247</v>
       </c>
       <c r="E7">
-        <v>6.540515717632771</v>
+        <v>10.99409496684529</v>
       </c>
       <c r="F7">
-        <v>36.76786483515546</v>
+        <v>44.18831002064651</v>
       </c>
       <c r="G7">
-        <v>2.134800116772989</v>
+        <v>3.750668850207452</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.37887136810364</v>
+        <v>37.86166576896202</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.12495244599374</v>
+        <v>19.13979459538961</v>
       </c>
       <c r="L7">
-        <v>5.597911769575068</v>
+        <v>9.458969847566706</v>
       </c>
       <c r="M7">
-        <v>14.5811445906468</v>
+        <v>19.72743667310725</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.717172408130192</v>
+        <v>6.637775271492904</v>
       </c>
       <c r="D8">
-        <v>5.879593996671705</v>
+        <v>8.944134589024081</v>
       </c>
       <c r="E8">
-        <v>6.597859704813002</v>
+        <v>10.96957739729299</v>
       </c>
       <c r="F8">
-        <v>38.51421193429521</v>
+        <v>44.38242288410603</v>
       </c>
       <c r="G8">
-        <v>2.119627775752834</v>
+        <v>3.74533963290556</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.47288737997994</v>
+        <v>37.93003113780981</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.97304517185013</v>
+        <v>19.47779449731449</v>
       </c>
       <c r="L8">
-        <v>5.563656818178154</v>
+        <v>9.431704633236068</v>
       </c>
       <c r="M8">
-        <v>15.56659100763414</v>
+        <v>19.83325921943751</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.957408357393067</v>
+        <v>6.637270174457862</v>
       </c>
       <c r="D9">
-        <v>5.636970467744725</v>
+        <v>8.878641742224556</v>
       </c>
       <c r="E9">
-        <v>6.739624134463723</v>
+        <v>10.93343301788585</v>
       </c>
       <c r="F9">
-        <v>42.08313564742971</v>
+        <v>44.8538789208999</v>
       </c>
       <c r="G9">
-        <v>2.090892740212058</v>
+        <v>3.735895259676041</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.77892251948586</v>
+        <v>38.13577796104554</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.38081012672054</v>
+        <v>20.16703285052232</v>
       </c>
       <c r="L9">
-        <v>5.515172411399464</v>
+        <v>9.385999174587853</v>
       </c>
       <c r="M9">
-        <v>17.43625175015174</v>
+        <v>20.07605527777284</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.134363070414137</v>
+        <v>6.641378392020973</v>
       </c>
       <c r="D10">
-        <v>5.468330849403585</v>
+        <v>8.834740471373054</v>
       </c>
       <c r="E10">
-        <v>6.863495919723301</v>
+        <v>10.91415704913797</v>
       </c>
       <c r="F10">
-        <v>44.79310623558063</v>
+        <v>45.25441397062373</v>
       </c>
       <c r="G10">
-        <v>2.070150226542005</v>
+        <v>3.729561722364629</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.57621955682956</v>
+        <v>38.33049761128522</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.68385414542641</v>
+        <v>20.68442605844898</v>
       </c>
       <c r="L10">
-        <v>5.492291407956847</v>
+        <v>9.357140411152395</v>
       </c>
       <c r="M10">
-        <v>19.06058032547316</v>
+        <v>20.27486856038291</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.214807155200711</v>
+        <v>6.644206839723002</v>
       </c>
       <c r="D11">
-        <v>5.394012039221504</v>
+        <v>8.815682921774979</v>
       </c>
       <c r="E11">
-        <v>6.924583292847608</v>
+        <v>10.90696879469558</v>
       </c>
       <c r="F11">
-        <v>46.04676403236643</v>
+        <v>45.44805418081517</v>
       </c>
       <c r="G11">
-        <v>2.060728628845129</v>
+        <v>3.726810107180716</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.41827536015555</v>
+        <v>38.42846568634775</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.69158374728462</v>
+        <v>20.92111635410299</v>
       </c>
       <c r="L11">
-        <v>5.484992833328917</v>
+        <v>9.345034781378235</v>
       </c>
       <c r="M11">
-        <v>19.80600799742171</v>
+        <v>20.36949439913785</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.245254470779464</v>
+        <v>6.645414674964299</v>
       </c>
       <c r="D12">
-        <v>5.366253030804615</v>
+        <v>8.808597643772686</v>
       </c>
       <c r="E12">
-        <v>6.948439381577488</v>
+        <v>10.90447400796042</v>
       </c>
       <c r="F12">
-        <v>46.52477930055545</v>
+        <v>45.52299118333248</v>
       </c>
       <c r="G12">
-        <v>2.057156602570489</v>
+        <v>3.725786635440375</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.74091006976631</v>
+        <v>38.46690401712763</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.06778402581406</v>
+        <v>21.01084735209021</v>
       </c>
       <c r="L12">
-        <v>5.482709351696945</v>
+        <v>9.340597558882168</v>
       </c>
       <c r="M12">
-        <v>20.08428568536167</v>
+        <v>20.40590515222668</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.238697831311582</v>
+        <v>6.645148483550223</v>
       </c>
       <c r="D13">
-        <v>5.372213592324753</v>
+        <v>8.810117739819777</v>
       </c>
       <c r="E13">
-        <v>6.943268627492211</v>
+        <v>10.90500119869376</v>
       </c>
       <c r="F13">
-        <v>46.42167831019474</v>
+        <v>45.50678115572296</v>
       </c>
       <c r="G13">
-        <v>2.057926202917507</v>
+        <v>3.72600623732017</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.67125251528862</v>
+        <v>38.45856622435023</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.9869970927242</v>
+        <v>20.99151905594603</v>
       </c>
       <c r="L13">
-        <v>5.483179204940631</v>
+        <v>9.341546661498521</v>
       </c>
       <c r="M13">
-        <v>20.02452711234005</v>
+        <v>20.39803812689128</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.217312401103011</v>
+        <v>6.644303475327554</v>
       </c>
       <c r="D14">
-        <v>5.391720324291384</v>
+        <v>8.815097377773657</v>
       </c>
       <c r="E14">
-        <v>6.926531182439748</v>
+        <v>10.9067589929327</v>
       </c>
       <c r="F14">
-        <v>46.08602278292383</v>
+        <v>45.45418724337923</v>
       </c>
       <c r="G14">
-        <v>2.06043488120222</v>
+        <v>3.726725535375121</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.44474149621822</v>
+        <v>38.43160124209545</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.72264020079412</v>
+        <v>20.92849704516668</v>
       </c>
       <c r="L14">
-        <v>5.484795138717788</v>
+        <v>9.344666784531636</v>
       </c>
       <c r="M14">
-        <v>19.82898066374926</v>
+        <v>20.37247848923926</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.20421110735076</v>
+        <v>6.643803656715039</v>
       </c>
       <c r="D15">
-        <v>5.403720138940848</v>
+        <v>8.818164664415564</v>
       </c>
       <c r="E15">
-        <v>6.916374603666167</v>
+        <v>10.90786528593751</v>
       </c>
       <c r="F15">
-        <v>45.88086206761739</v>
+        <v>45.42218049352984</v>
       </c>
       <c r="G15">
-        <v>2.06197075953097</v>
+        <v>3.727168532486491</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.30649629705447</v>
+        <v>38.41525857496669</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.56002086157771</v>
+        <v>20.88990485788295</v>
       </c>
       <c r="L15">
-        <v>5.485848552096392</v>
+        <v>9.346597080029619</v>
       </c>
       <c r="M15">
-        <v>19.70869000893703</v>
+        <v>20.35689702422881</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.129104033511518</v>
+        <v>6.641212752390828</v>
       </c>
       <c r="D16">
-        <v>5.473239063761709</v>
+        <v>8.836004311137216</v>
       </c>
       <c r="E16">
-        <v>6.859602547957923</v>
+        <v>10.91465862073965</v>
       </c>
       <c r="F16">
-        <v>44.71161789938386</v>
+        <v>45.24198633881298</v>
       </c>
       <c r="G16">
-        <v>2.070765716940512</v>
+        <v>3.729744143108158</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.52170084369926</v>
+        <v>38.32428327545903</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.6172209023724</v>
+        <v>20.66897680030866</v>
       </c>
       <c r="L16">
-        <v>5.492833706399567</v>
+        <v>9.357952106665818</v>
       </c>
       <c r="M16">
-        <v>19.01129070098127</v>
+        <v>20.26876673854555</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.083007706408923</v>
+        <v>6.639868238393952</v>
       </c>
       <c r="D17">
-        <v>5.516524681531909</v>
+        <v>8.847182328882926</v>
       </c>
       <c r="E17">
-        <v>6.826016632874837</v>
+        <v>10.91923090653081</v>
       </c>
       <c r="F17">
-        <v>43.9998314972803</v>
+        <v>45.13434819958271</v>
       </c>
       <c r="G17">
-        <v>2.076160568897047</v>
+        <v>3.731357288262729</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.04667067152378</v>
+        <v>38.27087105325328</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.02884181455346</v>
+        <v>20.53372005697921</v>
       </c>
       <c r="L17">
-        <v>5.497937727352632</v>
+        <v>9.365179829128884</v>
       </c>
       <c r="M17">
-        <v>18.57605477195965</v>
+        <v>20.21575688643551</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.056489428755949</v>
+        <v>6.639185308374033</v>
       </c>
       <c r="D18">
-        <v>5.541643973953572</v>
+        <v>8.853697593961108</v>
       </c>
       <c r="E18">
-        <v>6.807142000602645</v>
+        <v>10.92200953033939</v>
       </c>
       <c r="F18">
-        <v>43.59237199942665</v>
+        <v>45.07351618064823</v>
       </c>
       <c r="G18">
-        <v>2.079265315931778</v>
+        <v>3.732297327189445</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.77572846126071</v>
+        <v>38.24103424760985</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.68664008213875</v>
+        <v>20.45605393679443</v>
       </c>
       <c r="L18">
-        <v>5.50116395506767</v>
+        <v>9.369433259557413</v>
       </c>
       <c r="M18">
-        <v>18.32291815896553</v>
+        <v>20.18566239310076</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.047510264220459</v>
+        <v>6.638969642528806</v>
       </c>
       <c r="D19">
-        <v>5.550186152458267</v>
+        <v>8.855918313668584</v>
       </c>
       <c r="E19">
-        <v>6.800826270721705</v>
+        <v>10.92297587536993</v>
       </c>
       <c r="F19">
-        <v>43.45474015177782</v>
+        <v>45.05310575434489</v>
       </c>
       <c r="G19">
-        <v>2.080317012537143</v>
+        <v>3.732617707413121</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.68437781897333</v>
+        <v>38.23108420719533</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.57011736161174</v>
+        <v>20.42978259584944</v>
       </c>
       <c r="L19">
-        <v>5.502305256556959</v>
+        <v>9.370889929624688</v>
       </c>
       <c r="M19">
-        <v>18.2367222702448</v>
+        <v>20.17554152713007</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.08791531510929</v>
+        <v>6.640002016967958</v>
       </c>
       <c r="D20">
-        <v>5.511893574155562</v>
+        <v>8.845983512372895</v>
       </c>
       <c r="E20">
-        <v>6.829545761962243</v>
+        <v>10.91872878223752</v>
       </c>
       <c r="F20">
-        <v>44.07539984622937</v>
+        <v>45.14569507359678</v>
       </c>
       <c r="G20">
-        <v>2.075586137402876</v>
+        <v>3.731184304391835</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.09700065706728</v>
+        <v>38.27646540133798</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.09186485029486</v>
+        <v>20.54810556777929</v>
       </c>
       <c r="L20">
-        <v>5.497364100181455</v>
+        <v>9.36440046643842</v>
       </c>
       <c r="M20">
-        <v>18.62267447920803</v>
+        <v>20.22135912509512</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.223594263895809</v>
+        <v>6.644547973047684</v>
       </c>
       <c r="D21">
-        <v>5.385979928588972</v>
+        <v>8.8136311705903</v>
       </c>
       <c r="E21">
-        <v>6.931427371285738</v>
+        <v>10.90623651903436</v>
       </c>
       <c r="F21">
-        <v>46.18452098391496</v>
+        <v>45.4695919571587</v>
       </c>
       <c r="G21">
-        <v>2.05969819247634</v>
+        <v>3.72651375885199</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.51116864430861</v>
+        <v>38.43948523662365</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.80043200402244</v>
+        <v>20.94700608126089</v>
       </c>
       <c r="L21">
-        <v>5.484307178958326</v>
+        <v>9.343746342248922</v>
       </c>
       <c r="M21">
-        <v>19.88652376667165</v>
+        <v>20.37997048175599</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.31218058890446</v>
+        <v>6.648315572852133</v>
       </c>
       <c r="D22">
-        <v>5.305953850416681</v>
+        <v>8.79325299992292</v>
       </c>
       <c r="E22">
-        <v>7.00225470774715</v>
+        <v>10.89939664892947</v>
       </c>
       <c r="F22">
-        <v>47.58231339310488</v>
+        <v>45.69064126264001</v>
       </c>
       <c r="G22">
-        <v>2.04928597299451</v>
+        <v>3.723569093081502</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>36.45754280974464</v>
+        <v>38.55383220108657</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.88576540130691</v>
+        <v>21.2082626993789</v>
       </c>
       <c r="L22">
-        <v>5.478592005519485</v>
+        <v>9.331103978619987</v>
       </c>
       <c r="M22">
-        <v>20.6893515630892</v>
+        <v>20.48698952232531</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.264909498982418</v>
+        <v>6.646232268310549</v>
       </c>
       <c r="D23">
-        <v>5.34844149116512</v>
+        <v>8.804059103132206</v>
       </c>
       <c r="E23">
-        <v>6.964049170344339</v>
+        <v>10.90292603704196</v>
       </c>
       <c r="F23">
-        <v>46.83438610536351</v>
+        <v>45.57181857154791</v>
       </c>
       <c r="G23">
-        <v>2.054848118783139</v>
+        <v>3.725130892903272</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.95031456650371</v>
+        <v>38.49209289356995</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.30924401615995</v>
+        <v>21.06880344997725</v>
       </c>
       <c r="L23">
-        <v>5.481372351880158</v>
+        <v>9.337773125919377</v>
       </c>
       <c r="M23">
-        <v>20.26289504661095</v>
+        <v>20.42957234335784</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.085696637169199</v>
+        <v>6.639941255100047</v>
       </c>
       <c r="D24">
-        <v>5.513986572336863</v>
+        <v>8.846525220499316</v>
       </c>
       <c r="E24">
-        <v>6.827948892897498</v>
+        <v>10.91895532555046</v>
       </c>
       <c r="F24">
-        <v>44.04122994555328</v>
+        <v>45.14056187694067</v>
       </c>
       <c r="G24">
-        <v>2.075845827527718</v>
+        <v>3.731262471081279</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.07423976363039</v>
+        <v>38.27393348411848</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.06338441663477</v>
+        <v>20.5416015763359</v>
       </c>
       <c r="L24">
-        <v>5.497622530402464</v>
+        <v>9.364752510692174</v>
       </c>
       <c r="M24">
-        <v>18.60160680369075</v>
+        <v>20.21882516268166</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.892271723069451</v>
+        <v>6.636615878731263</v>
       </c>
       <c r="D25">
-        <v>5.700997818139525</v>
+        <v>8.895618414182719</v>
       </c>
       <c r="E25">
-        <v>6.697952240899325</v>
+        <v>10.94193284621294</v>
       </c>
       <c r="F25">
-        <v>41.10247750146138</v>
+        <v>44.71672529730063</v>
       </c>
       <c r="G25">
-        <v>2.098581512556351</v>
+        <v>3.738343337131752</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.13748545317795</v>
+        <v>38.07245026655443</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.49525894834488</v>
+        <v>19.97827338936807</v>
       </c>
       <c r="L25">
-        <v>5.526157624836311</v>
+        <v>9.397533896434144</v>
       </c>
       <c r="M25">
-        <v>16.9378986768304</v>
+        <v>20.00670145524141</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.63718292801021</v>
+        <v>3.750234113994205</v>
       </c>
       <c r="D2">
-        <v>8.93459740334325</v>
+        <v>5.845034881616451</v>
       </c>
       <c r="E2">
-        <v>10.96374181033933</v>
+        <v>6.615316481264484</v>
       </c>
       <c r="F2">
-        <v>44.44119803542744</v>
+        <v>38.99730769372269</v>
       </c>
       <c r="G2">
-        <v>3.743964081058378</v>
+        <v>2.115594041482564</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.95340611643464</v>
+        <v>30.78006620154725</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.57135239643369</v>
+        <v>20.46824601132797</v>
       </c>
       <c r="L2">
-        <v>9.424842787455148</v>
+        <v>5.555595180852194</v>
       </c>
       <c r="M2">
-        <v>19.86435596176544</v>
+        <v>15.82964902997347</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.63946683161606</v>
+        <v>3.654574025238535</v>
       </c>
       <c r="D3">
-        <v>8.962783197479377</v>
+        <v>5.946340343083229</v>
       </c>
       <c r="E3">
-        <v>10.98157163812049</v>
+        <v>6.566864059157817</v>
       </c>
       <c r="F3">
-        <v>44.27765426140905</v>
+        <v>37.60724288116554</v>
       </c>
       <c r="G3">
-        <v>3.748030053671211</v>
+        <v>2.12737633989143</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37.89105351662516</v>
+        <v>29.90126614872004</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.30215532147275</v>
+        <v>19.00498737103924</v>
       </c>
       <c r="L3">
-        <v>9.445332836830747</v>
+        <v>5.580359561340874</v>
       </c>
       <c r="M3">
-        <v>19.77687252305352</v>
+        <v>15.06213682079293</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.641812053616699</v>
+        <v>3.596285458053524</v>
       </c>
       <c r="D4">
-        <v>8.980963041199407</v>
+        <v>6.010312015556119</v>
       </c>
       <c r="E4">
-        <v>10.99402296886452</v>
+        <v>6.540651596398236</v>
       </c>
       <c r="F4">
-        <v>44.18877103296594</v>
+        <v>36.77240749561416</v>
       </c>
       <c r="G4">
-        <v>3.750654125121094</v>
+        <v>2.134759163916907</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>37.86180507877312</v>
+        <v>29.3816796480198</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.14067235887818</v>
+        <v>18.1295040584747</v>
       </c>
       <c r="L4">
-        <v>9.458892998494637</v>
+        <v>5.597810676370457</v>
       </c>
       <c r="M4">
-        <v>19.72769604185668</v>
+        <v>14.5837887037537</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.64300574626817</v>
+        <v>3.572670408143457</v>
       </c>
       <c r="D5">
-        <v>8.988591245522064</v>
+        <v>6.036821097792149</v>
       </c>
       <c r="E5">
-        <v>10.99947504515762</v>
+        <v>6.530832870702189</v>
       </c>
       <c r="F5">
-        <v>44.15546271921467</v>
+        <v>36.43704052688082</v>
       </c>
       <c r="G5">
-        <v>3.751755656151877</v>
+        <v>2.137808242275299</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>37.85215685432532</v>
+        <v>29.17494889870084</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.07590767195866</v>
+        <v>17.78989264955475</v>
       </c>
       <c r="L5">
-        <v>9.4646652782489</v>
+        <v>5.605469243646803</v>
       </c>
       <c r="M5">
-        <v>19.70881269765286</v>
+        <v>14.38727848389639</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.643218357609397</v>
+        <v>3.568758267310315</v>
       </c>
       <c r="D6">
-        <v>8.989871179255703</v>
+        <v>6.041249391454471</v>
       </c>
       <c r="E6">
-        <v>11.00040318942128</v>
+        <v>6.529253843031868</v>
       </c>
       <c r="F6">
-        <v>44.15010807430304</v>
+        <v>36.3816497692275</v>
       </c>
       <c r="G6">
-        <v>3.751940513124494</v>
+        <v>2.138317074851181</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>37.85069183815769</v>
+        <v>29.14092307982111</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.06521883349383</v>
+        <v>17.73307720235603</v>
       </c>
       <c r="L6">
-        <v>9.465638648393096</v>
+        <v>5.606773497264206</v>
       </c>
       <c r="M6">
-        <v>19.70574739451326</v>
+        <v>14.35455955876272</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.641827187380327</v>
+        <v>3.595966383194177</v>
       </c>
       <c r="D7">
-        <v>8.981065027907247</v>
+        <v>6.010667749142766</v>
       </c>
       <c r="E7">
-        <v>10.99409496684529</v>
+        <v>6.540515717632776</v>
       </c>
       <c r="F7">
-        <v>44.18831002064651</v>
+        <v>36.76786483515534</v>
       </c>
       <c r="G7">
-        <v>3.750668850207452</v>
+        <v>2.134800116772988</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>37.86166576896202</v>
+        <v>29.37887136810359</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.13979459538961</v>
+        <v>18.12495244599372</v>
       </c>
       <c r="L7">
-        <v>9.458969847566706</v>
+        <v>5.597911769575012</v>
       </c>
       <c r="M7">
-        <v>19.72743667310725</v>
+        <v>14.58114459064678</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.637775271492904</v>
+        <v>3.717172408130033</v>
       </c>
       <c r="D8">
-        <v>8.944134589024081</v>
+        <v>5.8795939966719</v>
       </c>
       <c r="E8">
-        <v>10.96957739729299</v>
+        <v>6.597859704812814</v>
       </c>
       <c r="F8">
-        <v>44.38242288410603</v>
+        <v>38.51421193429506</v>
       </c>
       <c r="G8">
-        <v>3.74533963290556</v>
+        <v>2.119627775752438</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37.93003113780981</v>
+        <v>30.47288737997976</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.47779449731449</v>
+        <v>19.9730451718502</v>
       </c>
       <c r="L8">
-        <v>9.431704633236068</v>
+        <v>5.563656818178137</v>
       </c>
       <c r="M8">
-        <v>19.83325921943751</v>
+        <v>15.56659100763408</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.637270174457862</v>
+        <v>3.957408357392964</v>
       </c>
       <c r="D9">
-        <v>8.878641742224556</v>
+        <v>5.6369704677448</v>
       </c>
       <c r="E9">
-        <v>10.93343301788585</v>
+        <v>6.739624134463757</v>
       </c>
       <c r="F9">
-        <v>44.8538789208999</v>
+        <v>42.08313564742982</v>
       </c>
       <c r="G9">
-        <v>3.735895259676041</v>
+        <v>2.090892740211921</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>38.13577796104554</v>
+        <v>32.77892251948597</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.16703285052232</v>
+        <v>23.38081012672051</v>
       </c>
       <c r="L9">
-        <v>9.385999174587853</v>
+        <v>5.515172411399519</v>
       </c>
       <c r="M9">
-        <v>20.07605527777284</v>
+        <v>17.43625175015175</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.641378392020973</v>
+        <v>4.134363070414309</v>
       </c>
       <c r="D10">
-        <v>8.834740471373054</v>
+        <v>5.468330849403366</v>
       </c>
       <c r="E10">
-        <v>10.91415704913797</v>
+        <v>6.863495919723372</v>
       </c>
       <c r="F10">
-        <v>45.25441397062373</v>
+        <v>44.7931062355807</v>
       </c>
       <c r="G10">
-        <v>3.729561722364629</v>
+        <v>2.070150226542272</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>38.33049761128522</v>
+        <v>34.57621955682957</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.68442605844898</v>
+        <v>25.68385414542654</v>
       </c>
       <c r="L10">
-        <v>9.357140411152395</v>
+        <v>5.492291407956895</v>
       </c>
       <c r="M10">
-        <v>20.27486856038291</v>
+        <v>19.06058032547321</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.644206839723002</v>
+        <v>4.214807155200605</v>
       </c>
       <c r="D11">
-        <v>8.815682921774979</v>
+        <v>5.394012039221535</v>
       </c>
       <c r="E11">
-        <v>10.90696879469558</v>
+        <v>6.92458329284769</v>
       </c>
       <c r="F11">
-        <v>45.44805418081517</v>
+        <v>46.04676403236653</v>
       </c>
       <c r="G11">
-        <v>3.726810107180716</v>
+        <v>2.060728628845387</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.42846568634775</v>
+        <v>35.41827536015559</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.92111635410299</v>
+        <v>26.69158374728474</v>
       </c>
       <c r="L11">
-        <v>9.345034781378235</v>
+        <v>5.484992833328907</v>
       </c>
       <c r="M11">
-        <v>20.36949439913785</v>
+        <v>19.80600799742177</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.645414674964299</v>
+        <v>4.245254470779685</v>
       </c>
       <c r="D12">
-        <v>8.808597643772686</v>
+        <v>5.366253030804632</v>
       </c>
       <c r="E12">
-        <v>10.90447400796042</v>
+        <v>6.948439381577627</v>
       </c>
       <c r="F12">
-        <v>45.52299118333248</v>
+        <v>46.52477930055556</v>
       </c>
       <c r="G12">
-        <v>3.725786635440375</v>
+        <v>2.057156602570483</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38.46690401712763</v>
+        <v>35.74091006976642</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.01084735209021</v>
+        <v>27.06778402581406</v>
       </c>
       <c r="L12">
-        <v>9.340597558882168</v>
+        <v>5.482709351696944</v>
       </c>
       <c r="M12">
-        <v>20.40590515222668</v>
+        <v>20.08428568536161</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.645148483550223</v>
+        <v>4.238697831311566</v>
       </c>
       <c r="D13">
-        <v>8.810117739819777</v>
+        <v>5.372213592324776</v>
       </c>
       <c r="E13">
-        <v>10.90500119869376</v>
+        <v>6.943268627492196</v>
       </c>
       <c r="F13">
-        <v>45.50678115572296</v>
+        <v>46.42167831019465</v>
       </c>
       <c r="G13">
-        <v>3.72600623732017</v>
+        <v>2.057926202917503</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>38.45856622435023</v>
+        <v>35.67125251528857</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.99151905594603</v>
+        <v>26.98699709272418</v>
       </c>
       <c r="L13">
-        <v>9.341546661498521</v>
+        <v>5.483179204940645</v>
       </c>
       <c r="M13">
-        <v>20.39803812689128</v>
+        <v>20.02452711234003</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.644303475327554</v>
+        <v>4.217312401103138</v>
       </c>
       <c r="D14">
-        <v>8.815097377773657</v>
+        <v>5.391720324291186</v>
       </c>
       <c r="E14">
-        <v>10.9067589929327</v>
+        <v>6.92653118243974</v>
       </c>
       <c r="F14">
-        <v>45.45418724337923</v>
+        <v>46.08602278292371</v>
       </c>
       <c r="G14">
-        <v>3.726725535375121</v>
+        <v>2.060434881202091</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.43160124209545</v>
+        <v>35.44474149621812</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.92849704516668</v>
+        <v>26.72264020079417</v>
       </c>
       <c r="L14">
-        <v>9.344666784531636</v>
+        <v>5.484795138717767</v>
       </c>
       <c r="M14">
-        <v>20.37247848923926</v>
+        <v>19.82898066374926</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.643803656715039</v>
+        <v>4.204211107350755</v>
       </c>
       <c r="D15">
-        <v>8.818164664415564</v>
+        <v>5.403720138940893</v>
       </c>
       <c r="E15">
-        <v>10.90786528593751</v>
+        <v>6.916374603666188</v>
       </c>
       <c r="F15">
-        <v>45.42218049352984</v>
+        <v>45.88086206761737</v>
       </c>
       <c r="G15">
-        <v>3.727168532486491</v>
+        <v>2.06197075953111</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.41525857496669</v>
+        <v>35.30649629705444</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.88990485788295</v>
+        <v>26.56002086157769</v>
       </c>
       <c r="L15">
-        <v>9.346597080029619</v>
+        <v>5.485848552096468</v>
       </c>
       <c r="M15">
-        <v>20.35689702422881</v>
+        <v>19.708690008937</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.641212752390828</v>
+        <v>4.129104033511542</v>
       </c>
       <c r="D16">
-        <v>8.836004311137216</v>
+        <v>5.473239063761757</v>
       </c>
       <c r="E16">
-        <v>10.91465862073965</v>
+        <v>6.859602547957946</v>
       </c>
       <c r="F16">
-        <v>45.24198633881298</v>
+        <v>44.711617899384</v>
       </c>
       <c r="G16">
-        <v>3.729744143108158</v>
+        <v>2.070765716940777</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.32428327545903</v>
+        <v>34.52170084369939</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.66897680030866</v>
+        <v>25.61722090237229</v>
       </c>
       <c r="L16">
-        <v>9.357952106665818</v>
+        <v>5.492833706399563</v>
       </c>
       <c r="M16">
-        <v>20.26876673854555</v>
+        <v>19.01129070098119</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.639868238393952</v>
+        <v>4.083007706408909</v>
       </c>
       <c r="D17">
-        <v>8.847182328882926</v>
+        <v>5.516524681532036</v>
       </c>
       <c r="E17">
-        <v>10.91923090653081</v>
+        <v>6.826016632874881</v>
       </c>
       <c r="F17">
-        <v>45.13434819958271</v>
+        <v>43.99983149728027</v>
       </c>
       <c r="G17">
-        <v>3.731357288262729</v>
+        <v>2.076160568896913</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>38.27087105325328</v>
+        <v>34.04667067152372</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.53372005697921</v>
+        <v>25.02884181455355</v>
       </c>
       <c r="L17">
-        <v>9.365179829128884</v>
+        <v>5.497937727352689</v>
       </c>
       <c r="M17">
-        <v>20.21575688643551</v>
+        <v>18.5760547719597</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.639185308374033</v>
+        <v>4.056489428755836</v>
       </c>
       <c r="D18">
-        <v>8.853697593961108</v>
+        <v>5.5416439739535</v>
       </c>
       <c r="E18">
-        <v>10.92200953033939</v>
+        <v>6.807142000602674</v>
       </c>
       <c r="F18">
-        <v>45.07351618064823</v>
+        <v>43.59237199942659</v>
       </c>
       <c r="G18">
-        <v>3.732297327189445</v>
+        <v>2.079265315931645</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.24103424760985</v>
+        <v>33.77572846126063</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.45605393679443</v>
+        <v>24.68664008213876</v>
       </c>
       <c r="L18">
-        <v>9.369433259557413</v>
+        <v>5.501163955067677</v>
       </c>
       <c r="M18">
-        <v>20.18566239310076</v>
+        <v>18.32291815896555</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.638969642528806</v>
+        <v>4.047510264220444</v>
       </c>
       <c r="D19">
-        <v>8.855918313668584</v>
+        <v>5.550186152458514</v>
       </c>
       <c r="E19">
-        <v>10.92297587536993</v>
+        <v>6.800826270721771</v>
       </c>
       <c r="F19">
-        <v>45.05310575434489</v>
+        <v>43.45474015177775</v>
       </c>
       <c r="G19">
-        <v>3.732617707413121</v>
+        <v>2.080317012537137</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.23108420719533</v>
+        <v>33.68437781897335</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.42978259584944</v>
+        <v>24.57011736161169</v>
       </c>
       <c r="L19">
-        <v>9.370889929624688</v>
+        <v>5.502305256556998</v>
       </c>
       <c r="M19">
-        <v>20.17554152713007</v>
+        <v>18.23672227024474</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.640002016967958</v>
+        <v>4.087915315109193</v>
       </c>
       <c r="D20">
-        <v>8.845983512372895</v>
+        <v>5.511893574155692</v>
       </c>
       <c r="E20">
-        <v>10.91872878223752</v>
+        <v>6.829545761962255</v>
       </c>
       <c r="F20">
-        <v>45.14569507359678</v>
+        <v>44.07539984622942</v>
       </c>
       <c r="G20">
-        <v>3.731184304391835</v>
+        <v>2.075586137402348</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38.27646540133798</v>
+        <v>34.09700065706727</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.54810556777929</v>
+        <v>25.09186485029491</v>
       </c>
       <c r="L20">
-        <v>9.36440046643842</v>
+        <v>5.497364100181498</v>
       </c>
       <c r="M20">
-        <v>20.22135912509512</v>
+        <v>18.62267447920808</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.644547973047684</v>
+        <v>4.22359426389573</v>
       </c>
       <c r="D21">
-        <v>8.8136311705903</v>
+        <v>5.385979928589089</v>
       </c>
       <c r="E21">
-        <v>10.90623651903436</v>
+        <v>6.931427371285706</v>
       </c>
       <c r="F21">
-        <v>45.4695919571587</v>
+        <v>46.18452098391496</v>
       </c>
       <c r="G21">
-        <v>3.72651375885199</v>
+        <v>2.059698192475944</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.43948523662365</v>
+        <v>35.51116864430867</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.94700608126089</v>
+        <v>26.80043200402241</v>
       </c>
       <c r="L21">
-        <v>9.343746342248922</v>
+        <v>5.484307178958307</v>
       </c>
       <c r="M21">
-        <v>20.37997048175599</v>
+        <v>19.88652376667165</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.648315572852133</v>
+        <v>4.312180588904446</v>
       </c>
       <c r="D22">
-        <v>8.79325299992292</v>
+        <v>5.305953850416633</v>
       </c>
       <c r="E22">
-        <v>10.89939664892947</v>
+        <v>7.00225470774715</v>
       </c>
       <c r="F22">
-        <v>45.69064126264001</v>
+        <v>47.58231339310496</v>
       </c>
       <c r="G22">
-        <v>3.723569093081502</v>
+        <v>2.04928597299424</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38.55383220108657</v>
+        <v>36.45754280974469</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.2082626993789</v>
+        <v>27.88576540130692</v>
       </c>
       <c r="L22">
-        <v>9.331103978619987</v>
+        <v>5.478592005519483</v>
       </c>
       <c r="M22">
-        <v>20.48698952232531</v>
+        <v>20.68935156308921</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.646232268310549</v>
+        <v>4.264909498982434</v>
       </c>
       <c r="D23">
-        <v>8.804059103132206</v>
+        <v>5.348441491165225</v>
       </c>
       <c r="E23">
-        <v>10.90292603704196</v>
+        <v>6.96404917034426</v>
       </c>
       <c r="F23">
-        <v>45.57181857154791</v>
+        <v>46.83438610536351</v>
       </c>
       <c r="G23">
-        <v>3.725130892903272</v>
+        <v>2.054848118783011</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>38.49209289356995</v>
+        <v>35.95031456650375</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.06880344997725</v>
+        <v>27.30924401615993</v>
       </c>
       <c r="L23">
-        <v>9.337773125919377</v>
+        <v>5.481372351880077</v>
       </c>
       <c r="M23">
-        <v>20.42957234335784</v>
+        <v>20.26289504661096</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.639941255100047</v>
+        <v>4.085696637169215</v>
       </c>
       <c r="D24">
-        <v>8.846525220499316</v>
+        <v>5.513986572336984</v>
       </c>
       <c r="E24">
-        <v>10.91895532555046</v>
+        <v>6.827948892897492</v>
       </c>
       <c r="F24">
-        <v>45.14056187694067</v>
+        <v>44.04122994555339</v>
       </c>
       <c r="G24">
-        <v>3.731262471081279</v>
+        <v>2.075845827527722</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38.27393348411848</v>
+        <v>34.07423976363049</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.5416015763359</v>
+        <v>25.06338441663476</v>
       </c>
       <c r="L24">
-        <v>9.364752510692174</v>
+        <v>5.497622530402438</v>
       </c>
       <c r="M24">
-        <v>20.21882516268166</v>
+        <v>18.60160680369074</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.636615878731263</v>
+        <v>3.892271723069387</v>
       </c>
       <c r="D25">
-        <v>8.895618414182719</v>
+        <v>5.700997818139648</v>
       </c>
       <c r="E25">
-        <v>10.94193284621294</v>
+        <v>6.69795224089928</v>
       </c>
       <c r="F25">
-        <v>44.71672529730063</v>
+        <v>41.10247750146149</v>
       </c>
       <c r="G25">
-        <v>3.738343337131752</v>
+        <v>2.098581512556747</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38.07245026655443</v>
+        <v>32.13748545317803</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.97827338936807</v>
+        <v>22.49525894834482</v>
       </c>
       <c r="L25">
-        <v>9.397533896434144</v>
+        <v>5.526157624836282</v>
       </c>
       <c r="M25">
-        <v>20.00670145524141</v>
+        <v>16.93789867683041</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.750234113994205</v>
+        <v>9.155818736803381</v>
       </c>
       <c r="D2">
-        <v>5.845034881616451</v>
+        <v>3.487455182415268</v>
       </c>
       <c r="E2">
-        <v>6.615316481264484</v>
+        <v>8.974331818870617</v>
       </c>
       <c r="F2">
-        <v>38.99730769372269</v>
+        <v>23.20408883752813</v>
       </c>
       <c r="G2">
-        <v>2.115594041482564</v>
+        <v>32.36823829111143</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.354266118549889</v>
       </c>
       <c r="I2">
-        <v>30.78006620154725</v>
+        <v>3.803588136418058</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.10690686724926</v>
       </c>
       <c r="K2">
-        <v>20.46824601132797</v>
+        <v>18.79754910927327</v>
       </c>
       <c r="L2">
-        <v>5.555595180852194</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.82964902997347</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.796684698900333</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>27.80465093259787</v>
+      </c>
+      <c r="P2">
+        <v>19.94075279954899</v>
+      </c>
+      <c r="Q2">
+        <v>18.22952961272229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.654574025238535</v>
+        <v>9.00301234935441</v>
       </c>
       <c r="D3">
-        <v>5.946340343083229</v>
+        <v>3.396923365111956</v>
       </c>
       <c r="E3">
-        <v>6.566864059157817</v>
+        <v>8.92861127407304</v>
       </c>
       <c r="F3">
-        <v>37.60724288116554</v>
+        <v>22.09289673751707</v>
       </c>
       <c r="G3">
-        <v>2.12737633989143</v>
+        <v>30.60886836809545</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.129157970597491</v>
       </c>
       <c r="I3">
-        <v>29.90126614872004</v>
+        <v>3.606473760396282</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.846814692239917</v>
       </c>
       <c r="K3">
-        <v>19.00498737103924</v>
+        <v>18.15333963204068</v>
       </c>
       <c r="L3">
-        <v>5.580359561340874</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.06213682079293</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.804157269308402</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.09532549360527</v>
+      </c>
+      <c r="P3">
+        <v>19.08141414699194</v>
+      </c>
+      <c r="Q3">
+        <v>17.51195488977966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.596285458053524</v>
+        <v>8.904898356868353</v>
       </c>
       <c r="D4">
-        <v>6.010312015556119</v>
+        <v>3.339457186759944</v>
       </c>
       <c r="E4">
-        <v>6.540651596398236</v>
+        <v>8.899206568786006</v>
       </c>
       <c r="F4">
-        <v>36.77240749561416</v>
+        <v>21.38828526555069</v>
       </c>
       <c r="G4">
-        <v>2.134759163916907</v>
+        <v>29.48312544549985</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.986084080173519</v>
       </c>
       <c r="I4">
-        <v>29.3816796480198</v>
+        <v>3.481138752308293</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.686080578374041</v>
       </c>
       <c r="K4">
-        <v>18.1295040584747</v>
+        <v>17.74831789123558</v>
       </c>
       <c r="L4">
-        <v>5.597810676370457</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.5837887037537</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.80850125864417</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>24.98094821784184</v>
+      </c>
+      <c r="P4">
+        <v>18.53558548024536</v>
+      </c>
+      <c r="Q4">
+        <v>17.06068426975195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.572670408143457</v>
+        <v>8.859240048558485</v>
       </c>
       <c r="D5">
-        <v>6.036821097792149</v>
+        <v>3.316419497289107</v>
       </c>
       <c r="E5">
-        <v>6.530832870702189</v>
+        <v>8.886053438849356</v>
       </c>
       <c r="F5">
-        <v>36.43704052688082</v>
+        <v>21.08763758174447</v>
       </c>
       <c r="G5">
-        <v>2.137808242275299</v>
+        <v>28.99824306187003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.926058119093345</v>
       </c>
       <c r="I5">
-        <v>29.17494889870084</v>
+        <v>3.428947114167584</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.617587393765001</v>
       </c>
       <c r="K5">
-        <v>17.78989264955475</v>
+        <v>17.57205145784813</v>
       </c>
       <c r="L5">
-        <v>5.605469243646803</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.38727848389639</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.810119156107548</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.50507679930699</v>
+      </c>
+      <c r="P5">
+        <v>18.30996561972585</v>
+      </c>
+      <c r="Q5">
+        <v>16.86754534736641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.568758267310315</v>
+        <v>8.84599446926787</v>
       </c>
       <c r="D6">
-        <v>6.041249391454471</v>
+        <v>3.313603055296841</v>
       </c>
       <c r="E6">
-        <v>6.529253843031868</v>
+        <v>8.882847210023405</v>
       </c>
       <c r="F6">
-        <v>36.3816497692275</v>
+        <v>21.02730962911888</v>
       </c>
       <c r="G6">
-        <v>2.138317074851181</v>
+        <v>28.89856096764147</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.915425486860501</v>
       </c>
       <c r="I6">
-        <v>29.14092307982111</v>
+        <v>3.420353652865878</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.602768945063007</v>
       </c>
       <c r="K6">
-        <v>17.73307720235603</v>
+        <v>17.53159447818107</v>
       </c>
       <c r="L6">
-        <v>5.606773497264206</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.35455955876272</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.810279255218092</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.41833223220672</v>
+      </c>
+      <c r="P6">
+        <v>18.27359663955345</v>
+      </c>
+      <c r="Q6">
+        <v>16.8270115391929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.595966383194177</v>
+        <v>8.889051539468767</v>
       </c>
       <c r="D7">
-        <v>6.010667749142766</v>
+        <v>3.341971034416479</v>
       </c>
       <c r="E7">
-        <v>6.540515717632776</v>
+        <v>8.896327363007806</v>
       </c>
       <c r="F7">
-        <v>36.76786483515534</v>
+        <v>21.35710843834876</v>
       </c>
       <c r="G7">
-        <v>2.134800116772988</v>
+        <v>29.42700089431095</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.983687430790902</v>
       </c>
       <c r="I7">
-        <v>29.37887136810359</v>
+        <v>3.480551327883743</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.67584490713382</v>
       </c>
       <c r="K7">
-        <v>18.12495244599372</v>
+        <v>17.7160548757549</v>
       </c>
       <c r="L7">
-        <v>5.597911769575012</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.58114459064678</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.808238460568643</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>24.95658797532623</v>
+      </c>
+      <c r="P7">
+        <v>18.53619200701073</v>
+      </c>
+      <c r="Q7">
+        <v>17.03564355207259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.717172408130033</v>
+        <v>9.084252961571432</v>
       </c>
       <c r="D8">
-        <v>5.8795939966719</v>
+        <v>3.46032637417665</v>
       </c>
       <c r="E8">
-        <v>6.597859704812814</v>
+        <v>8.955382698299811</v>
       </c>
       <c r="F8">
-        <v>38.51421193429506</v>
+        <v>22.79183059915524</v>
       </c>
       <c r="G8">
-        <v>2.119627775752438</v>
+        <v>31.70974235247224</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.275622326951716</v>
       </c>
       <c r="I8">
-        <v>30.47288737997976</v>
+        <v>3.736312910707419</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.00551256167742</v>
       </c>
       <c r="K8">
-        <v>19.9730451718502</v>
+        <v>18.53945815764224</v>
       </c>
       <c r="L8">
-        <v>5.563656818178137</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.56659100763408</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.798949389413109</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.20670803937685</v>
+      </c>
+      <c r="P8">
+        <v>19.65299966838439</v>
+      </c>
+      <c r="Q8">
+        <v>17.95608227060042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.957408357392964</v>
+        <v>9.459615826104608</v>
       </c>
       <c r="D9">
-        <v>5.6369704677448</v>
+        <v>3.672255999459057</v>
       </c>
       <c r="E9">
-        <v>6.739624134463757</v>
+        <v>9.065953883241354</v>
       </c>
       <c r="F9">
-        <v>42.08313564742982</v>
+        <v>25.45995988630053</v>
       </c>
       <c r="G9">
-        <v>2.090892740211921</v>
+        <v>35.89109440285217</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.813095431081356</v>
       </c>
       <c r="I9">
-        <v>32.77892251948597</v>
+        <v>4.205106288336891</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.656642887978</v>
       </c>
       <c r="K9">
-        <v>23.38081012672051</v>
+        <v>20.12151490714229</v>
       </c>
       <c r="L9">
-        <v>5.515172411399519</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.43625175015175</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.779443157418259</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>31.13169396231334</v>
+      </c>
+      <c r="P9">
+        <v>21.68199893376328</v>
+      </c>
+      <c r="Q9">
+        <v>19.70468637337286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.134363070414309</v>
+        <v>9.66173776550691</v>
       </c>
       <c r="D10">
-        <v>5.468330849403366</v>
+        <v>3.831939470758283</v>
       </c>
       <c r="E10">
-        <v>6.863495919723372</v>
+        <v>9.101302353258877</v>
       </c>
       <c r="F10">
-        <v>44.7931062355807</v>
+        <v>27.17982511583233</v>
       </c>
       <c r="G10">
-        <v>2.070150226542272</v>
+        <v>38.52181364705401</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.17227181028131</v>
       </c>
       <c r="I10">
-        <v>34.57621955682957</v>
+        <v>4.52384430598419</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.08268777775519</v>
       </c>
       <c r="K10">
-        <v>25.68385414542654</v>
+        <v>21.10647913695585</v>
       </c>
       <c r="L10">
-        <v>5.492291407956895</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.06058032547321</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.761400159770664</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.56244929215117</v>
+      </c>
+      <c r="P10">
+        <v>23.09721562090653</v>
+      </c>
+      <c r="Q10">
+        <v>20.82688472312116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.214807155200605</v>
+        <v>9.367609674709243</v>
       </c>
       <c r="D11">
-        <v>5.394012039221535</v>
+        <v>4.01778451142387</v>
       </c>
       <c r="E11">
-        <v>6.92458329284769</v>
+        <v>8.959537069693983</v>
       </c>
       <c r="F11">
-        <v>46.04676403236653</v>
+        <v>27.04439407249989</v>
       </c>
       <c r="G11">
-        <v>2.060728628845387</v>
+        <v>38.08731287027373</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.801046575081787</v>
       </c>
       <c r="I11">
-        <v>35.41827536015559</v>
+        <v>4.611993498536044</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.9363347769564</v>
       </c>
       <c r="K11">
-        <v>26.69158374728474</v>
+        <v>20.60173831176948</v>
       </c>
       <c r="L11">
-        <v>5.484992833328907</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>19.80600799742177</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.854027079171406</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>33.46363026978815</v>
+      </c>
+      <c r="P11">
+        <v>23.97238952857897</v>
+      </c>
+      <c r="Q11">
+        <v>20.55873697780565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.245254470779685</v>
+        <v>9.144343418833891</v>
       </c>
       <c r="D12">
-        <v>5.366253030804632</v>
+        <v>4.144206253544025</v>
       </c>
       <c r="E12">
-        <v>6.948439381577627</v>
+        <v>9.095398486393231</v>
       </c>
       <c r="F12">
-        <v>46.52477930055556</v>
+        <v>26.59732613393453</v>
       </c>
       <c r="G12">
-        <v>2.057156602570483</v>
+        <v>37.22246362102279</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.826380591050701</v>
       </c>
       <c r="I12">
-        <v>35.74091006976642</v>
+        <v>4.624315794285065</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.73027289762717</v>
       </c>
       <c r="K12">
-        <v>27.06778402581406</v>
+        <v>19.99774894018833</v>
       </c>
       <c r="L12">
-        <v>5.482709351696944</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.08428568536161</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.101991776923676</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>32.89316178238284</v>
+      </c>
+      <c r="P12">
+        <v>24.41912216316643</v>
+      </c>
+      <c r="Q12">
+        <v>20.11729016334786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.238697831311566</v>
+        <v>8.941602577348204</v>
       </c>
       <c r="D13">
-        <v>5.372213592324776</v>
+        <v>4.237373853249732</v>
       </c>
       <c r="E13">
-        <v>6.943268627492196</v>
+        <v>9.43220774052967</v>
       </c>
       <c r="F13">
-        <v>46.42167831019465</v>
+        <v>25.83377633613334</v>
       </c>
       <c r="G13">
-        <v>2.057926202917503</v>
+        <v>35.88308468924966</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.991535336865998</v>
       </c>
       <c r="I13">
-        <v>35.67125251528857</v>
+        <v>4.579290913111623</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.44865172175198</v>
       </c>
       <c r="K13">
-        <v>26.98699709272418</v>
+        <v>19.22761148116209</v>
       </c>
       <c r="L13">
-        <v>5.483179204940645</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.02452711234003</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.460167120145171</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>31.88723297940319</v>
+      </c>
+      <c r="P13">
+        <v>24.57773267482701</v>
+      </c>
+      <c r="Q13">
+        <v>19.47398141427892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.217312401103138</v>
+        <v>8.815440964530604</v>
       </c>
       <c r="D14">
-        <v>5.391720324291186</v>
+        <v>4.289415482942641</v>
       </c>
       <c r="E14">
-        <v>6.92653118243974</v>
+        <v>9.776752077924629</v>
       </c>
       <c r="F14">
-        <v>46.08602278292371</v>
+        <v>25.13950373012736</v>
       </c>
       <c r="G14">
-        <v>2.060434881202091</v>
+        <v>34.69992127930832</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.859025414067775</v>
       </c>
       <c r="I14">
-        <v>35.44474149621812</v>
+        <v>4.522322367097218</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.21287508741416</v>
       </c>
       <c r="K14">
-        <v>26.72264020079417</v>
+        <v>18.5991369011162</v>
       </c>
       <c r="L14">
-        <v>5.484795138717767</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>19.82898066374926</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.765498370364437</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>30.96632354309226</v>
+      </c>
+      <c r="P14">
+        <v>24.56101294746379</v>
+      </c>
+      <c r="Q14">
+        <v>18.91962884473167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.204211107350755</v>
+        <v>8.781781798695123</v>
       </c>
       <c r="D15">
-        <v>5.403720138940893</v>
+        <v>4.295555508840242</v>
       </c>
       <c r="E15">
-        <v>6.916374603666188</v>
+        <v>9.868472624750192</v>
       </c>
       <c r="F15">
-        <v>45.88086206761737</v>
+        <v>24.89283742513279</v>
       </c>
       <c r="G15">
-        <v>2.06197075953111</v>
+        <v>34.29164504058783</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.05640688408245</v>
       </c>
       <c r="I15">
-        <v>35.30649629705444</v>
+        <v>4.49586786166301</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.13658029503895</v>
       </c>
       <c r="K15">
-        <v>26.56002086157769</v>
+        <v>18.40099101475586</v>
       </c>
       <c r="L15">
-        <v>5.485848552096468</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>19.708690008937</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.839893986795442</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>30.64069450079283</v>
+      </c>
+      <c r="P15">
+        <v>24.49611072660016</v>
+      </c>
+      <c r="Q15">
+        <v>18.73387897150374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.129104033511542</v>
+        <v>8.728789834758675</v>
       </c>
       <c r="D16">
-        <v>5.473239063761757</v>
+        <v>4.213922098586418</v>
       </c>
       <c r="E16">
-        <v>6.859602547957946</v>
+        <v>9.776245357693622</v>
       </c>
       <c r="F16">
-        <v>44.711617899384</v>
+        <v>24.26174456118457</v>
       </c>
       <c r="G16">
-        <v>2.070765716940777</v>
+        <v>33.34000207370466</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.776778110155503</v>
       </c>
       <c r="I16">
-        <v>34.52170084369939</v>
+        <v>4.36963207120235</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.996671803870258</v>
       </c>
       <c r="K16">
-        <v>25.61722090237229</v>
+        <v>18.08931212592925</v>
       </c>
       <c r="L16">
-        <v>5.492833706399563</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.01129070098119</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.763199491515095</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29.76212944108848</v>
+      </c>
+      <c r="P16">
+        <v>23.88996124851513</v>
+      </c>
+      <c r="Q16">
+        <v>18.34306611178508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.083007706408909</v>
+        <v>8.748859822923954</v>
       </c>
       <c r="D17">
-        <v>5.516524681532036</v>
+        <v>4.121800158755903</v>
       </c>
       <c r="E17">
-        <v>6.826016632874881</v>
+        <v>9.503225157130101</v>
       </c>
       <c r="F17">
-        <v>43.99983149728027</v>
+        <v>24.15754320391015</v>
       </c>
       <c r="G17">
-        <v>2.076160568896913</v>
+        <v>33.25998434548529</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.05129310000897</v>
       </c>
       <c r="I17">
-        <v>34.04667067152372</v>
+        <v>4.302782355674982</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.01764960234463</v>
       </c>
       <c r="K17">
-        <v>25.02884181455355</v>
+        <v>18.19285331915215</v>
       </c>
       <c r="L17">
-        <v>5.497937727352689</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>18.5760547719597</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.532163203009608</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>29.58943622103443</v>
+      </c>
+      <c r="P17">
+        <v>23.4261833929842</v>
+      </c>
+      <c r="Q17">
+        <v>18.34669643510003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.056489428755836</v>
+        <v>8.867004342440914</v>
       </c>
       <c r="D18">
-        <v>5.5416439739535</v>
+        <v>4.010497063057987</v>
       </c>
       <c r="E18">
-        <v>6.807142000602674</v>
+        <v>9.147351953063181</v>
       </c>
       <c r="F18">
-        <v>43.59237199942659</v>
+        <v>24.51685461065079</v>
       </c>
       <c r="G18">
-        <v>2.079265315931645</v>
+        <v>33.96258605947515</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.918521263133334</v>
       </c>
       <c r="I18">
-        <v>33.77572846126063</v>
+        <v>4.281194505447534</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.18465278963752</v>
       </c>
       <c r="K18">
-        <v>24.68664008213876</v>
+        <v>18.68578166807711</v>
       </c>
       <c r="L18">
-        <v>5.501163955067677</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.32291815896555</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.20242410765126</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>30.02896028892846</v>
+      </c>
+      <c r="P18">
+        <v>23.03648657229713</v>
+      </c>
+      <c r="Q18">
+        <v>18.70567501750463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.047510264220444</v>
+        <v>9.082235572495046</v>
       </c>
       <c r="D19">
-        <v>5.550186152458514</v>
+        <v>3.902846569767314</v>
       </c>
       <c r="E19">
-        <v>6.800826270721771</v>
+        <v>8.928067119366117</v>
       </c>
       <c r="F19">
-        <v>43.45474015177775</v>
+        <v>25.16926206454003</v>
       </c>
       <c r="G19">
-        <v>2.080317012537137</v>
+        <v>35.14827029022999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.738808774087314</v>
       </c>
       <c r="I19">
-        <v>33.68437781897335</v>
+        <v>4.303791920654461</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.43751075964136</v>
       </c>
       <c r="K19">
-        <v>24.57011736161169</v>
+        <v>19.39874670129258</v>
       </c>
       <c r="L19">
-        <v>5.502305256556998</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.23672227024474</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.912539121409821</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>30.88961207255468</v>
+      </c>
+      <c r="P19">
+        <v>22.7463987846333</v>
+      </c>
+      <c r="Q19">
+        <v>19.27884792928322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.087915315109193</v>
+        <v>9.564835907780997</v>
       </c>
       <c r="D20">
-        <v>5.511893574155692</v>
+        <v>3.799669290292112</v>
       </c>
       <c r="E20">
-        <v>6.829545761962255</v>
+        <v>9.083114789177781</v>
       </c>
       <c r="F20">
-        <v>44.07539984622942</v>
+        <v>26.66263703086779</v>
       </c>
       <c r="G20">
-        <v>2.075586137402348</v>
+        <v>37.71430514250804</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.073301716451814</v>
       </c>
       <c r="I20">
-        <v>34.09700065706727</v>
+        <v>4.442765477052534</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.94387947294015</v>
       </c>
       <c r="K20">
-        <v>25.09186485029491</v>
+        <v>20.76622295731634</v>
       </c>
       <c r="L20">
-        <v>5.497364100181498</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>18.62267447920808</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.764837213417891</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>32.89459215811556</v>
+      </c>
+      <c r="P20">
+        <v>22.74447098414785</v>
+      </c>
+      <c r="Q20">
+        <v>20.47340905752243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.22359426389573</v>
+        <v>9.794702108077288</v>
       </c>
       <c r="D21">
-        <v>5.385979928589089</v>
+        <v>3.898148743284696</v>
       </c>
       <c r="E21">
-        <v>6.931427371285706</v>
+        <v>9.172212564094716</v>
       </c>
       <c r="F21">
-        <v>46.18452098391496</v>
+        <v>28.1111085996437</v>
       </c>
       <c r="G21">
-        <v>2.059698192475944</v>
+        <v>39.96135777016884</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.365037596814012</v>
       </c>
       <c r="I21">
-        <v>35.51116864430867</v>
+        <v>4.691647595288218</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.33068161504608</v>
       </c>
       <c r="K21">
-        <v>26.80043200402241</v>
+        <v>21.68265999369531</v>
       </c>
       <c r="L21">
-        <v>5.484307178958307</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>19.88652376667165</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.755846959548996</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>34.87478280888084</v>
+      </c>
+      <c r="P21">
+        <v>23.74632970094096</v>
+      </c>
+      <c r="Q21">
+        <v>21.45791166080431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.312180588904446</v>
+        <v>9.93562078225118</v>
       </c>
       <c r="D22">
-        <v>5.305953850416633</v>
+        <v>3.963624241133549</v>
       </c>
       <c r="E22">
-        <v>7.00225470774715</v>
+        <v>9.212707838990593</v>
       </c>
       <c r="F22">
-        <v>47.58231339310496</v>
+        <v>29.00698978480655</v>
       </c>
       <c r="G22">
-        <v>2.04928597299424</v>
+        <v>41.33886930662558</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.546391118583875</v>
       </c>
       <c r="I22">
-        <v>36.45754280974469</v>
+        <v>4.847144501822105</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.57167277800275</v>
       </c>
       <c r="K22">
-        <v>27.88576540130692</v>
+        <v>22.24654746842057</v>
       </c>
       <c r="L22">
-        <v>5.478592005519483</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>20.68935156308921</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.748375224431204</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>36.06080718954561</v>
+      </c>
+      <c r="P22">
+        <v>24.39072570517598</v>
+      </c>
+      <c r="Q22">
+        <v>22.06602048524683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.264909498982434</v>
+        <v>9.876886329141922</v>
       </c>
       <c r="D23">
-        <v>5.348441491165225</v>
+        <v>3.925737842077103</v>
       </c>
       <c r="E23">
-        <v>6.96404917034426</v>
+        <v>9.193939473034412</v>
       </c>
       <c r="F23">
-        <v>46.83438610536351</v>
+        <v>28.55623822465501</v>
       </c>
       <c r="G23">
-        <v>2.054848118783011</v>
+        <v>40.65230188010636</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.451531356631162</v>
       </c>
       <c r="I23">
-        <v>35.95031456650375</v>
+        <v>4.763723781100773</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.45285550793308</v>
       </c>
       <c r="K23">
-        <v>27.30924401615993</v>
+        <v>21.97616546047788</v>
       </c>
       <c r="L23">
-        <v>5.481372351880077</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.26289504661096</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.75259631232994</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>35.44857690189913</v>
+      </c>
+      <c r="P23">
+        <v>24.04530504704817</v>
+      </c>
+      <c r="Q23">
+        <v>21.76429227594106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.085696637169215</v>
+        <v>9.622397825529138</v>
       </c>
       <c r="D24">
-        <v>5.513986572336984</v>
+        <v>3.783374075464083</v>
       </c>
       <c r="E24">
-        <v>6.827948892897492</v>
+        <v>9.117468411590472</v>
       </c>
       <c r="F24">
-        <v>44.04122994555339</v>
+        <v>26.75871216772953</v>
       </c>
       <c r="G24">
-        <v>2.075845827527722</v>
+        <v>37.89112547320479</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.08264934824292</v>
       </c>
       <c r="I24">
-        <v>34.07423976363049</v>
+        <v>4.442407127023462</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.98246502837376</v>
       </c>
       <c r="K24">
-        <v>25.06338441663476</v>
+        <v>20.88127300157338</v>
       </c>
       <c r="L24">
-        <v>5.497622530402438</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>18.60160680369074</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.768116158411741</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>32.99144481219789</v>
+      </c>
+      <c r="P24">
+        <v>22.69876344244464</v>
+      </c>
+      <c r="Q24">
+        <v>20.55972899123564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.892271723069387</v>
+        <v>9.335619351996177</v>
       </c>
       <c r="D25">
-        <v>5.700997818139648</v>
+        <v>3.62153680524739</v>
       </c>
       <c r="E25">
-        <v>6.69795224089928</v>
+        <v>9.032474154389266</v>
       </c>
       <c r="F25">
-        <v>41.10247750146149</v>
+        <v>24.71719457345278</v>
       </c>
       <c r="G25">
-        <v>2.098581512556747</v>
+        <v>34.72492774688781</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.668979525720679</v>
       </c>
       <c r="I25">
-        <v>32.13748545317803</v>
+        <v>4.082178984523732</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.46645694666343</v>
       </c>
       <c r="K25">
-        <v>22.49525894834482</v>
+        <v>19.65434628245793</v>
       </c>
       <c r="L25">
-        <v>5.526157624836282</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>16.93789867683041</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.784448886076778</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>30.0980180891386</v>
+      </c>
+      <c r="P25">
+        <v>21.15694980738517</v>
+      </c>
+      <c r="Q25">
+        <v>19.20654769442486</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.155818736803381</v>
+        <v>8.439972346228648</v>
       </c>
       <c r="D2">
-        <v>3.487455182415268</v>
+        <v>3.646260879048059</v>
       </c>
       <c r="E2">
-        <v>8.974331818870617</v>
+        <v>8.780366072181513</v>
       </c>
       <c r="F2">
-        <v>23.20408883752813</v>
+        <v>22.1215223112468</v>
       </c>
       <c r="G2">
-        <v>32.36823829111143</v>
+        <v>29.91144692882073</v>
       </c>
       <c r="H2">
-        <v>2.354266118549889</v>
+        <v>2.270231814440453</v>
       </c>
       <c r="I2">
-        <v>3.803588136418058</v>
+        <v>3.711955320348638</v>
       </c>
       <c r="J2">
-        <v>10.10690686724926</v>
+        <v>10.34941161350258</v>
       </c>
       <c r="K2">
-        <v>18.79754910927327</v>
+        <v>17.56321870866006</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.31103783153979</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.14104139557453</v>
       </c>
       <c r="N2">
-        <v>5.796684698900333</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>27.80465093259787</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>19.94075279954899</v>
+        <v>5.792688719133488</v>
       </c>
       <c r="Q2">
-        <v>18.22952961272229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>27.07865420426388</v>
+      </c>
+      <c r="R2">
+        <v>20.09581079409446</v>
+      </c>
+      <c r="S2">
+        <v>17.34233324666518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.00301234935441</v>
+        <v>8.321171995776581</v>
       </c>
       <c r="D3">
-        <v>3.396923365111956</v>
+        <v>3.528255787358089</v>
       </c>
       <c r="E3">
-        <v>8.92861127407304</v>
+        <v>8.752849864604261</v>
       </c>
       <c r="F3">
-        <v>22.09289673751707</v>
+        <v>21.13644971938048</v>
       </c>
       <c r="G3">
-        <v>30.60886836809545</v>
+        <v>28.34008755762751</v>
       </c>
       <c r="H3">
-        <v>2.129157970597491</v>
+        <v>2.06728278324341</v>
       </c>
       <c r="I3">
-        <v>3.606473760396282</v>
+        <v>3.541965592360251</v>
       </c>
       <c r="J3">
-        <v>9.846814692239917</v>
+        <v>10.12320532263161</v>
       </c>
       <c r="K3">
-        <v>18.15333963204068</v>
+        <v>17.06019936009966</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.16818095851122</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.46188311520158</v>
       </c>
       <c r="N3">
-        <v>5.804157269308402</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>26.09532549360527</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>19.08141414699194</v>
+        <v>5.815554449188314</v>
       </c>
       <c r="Q3">
-        <v>17.51195488977966</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>25.44379512077505</v>
+      </c>
+      <c r="R3">
+        <v>19.21603502887152</v>
+      </c>
+      <c r="S3">
+        <v>16.73151815717805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.904898356868353</v>
+        <v>8.244821032691526</v>
       </c>
       <c r="D4">
-        <v>3.339457186759944</v>
+        <v>3.453453370189129</v>
       </c>
       <c r="E4">
-        <v>8.899206568786006</v>
+        <v>8.734872342513119</v>
       </c>
       <c r="F4">
-        <v>21.38828526555069</v>
+        <v>20.51179718485562</v>
       </c>
       <c r="G4">
-        <v>29.48312544549985</v>
+        <v>27.33530158005916</v>
       </c>
       <c r="H4">
-        <v>1.986084080173519</v>
+        <v>1.938177292862422</v>
       </c>
       <c r="I4">
-        <v>3.481138752308293</v>
+        <v>3.433890875231837</v>
       </c>
       <c r="J4">
-        <v>9.686080578374041</v>
+        <v>9.981756713468684</v>
       </c>
       <c r="K4">
-        <v>17.74831789123558</v>
+        <v>16.74354927073786</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.07307834871108</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.04581047705105</v>
       </c>
       <c r="N4">
-        <v>5.80850125864417</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>24.98094821784184</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>18.53558548024536</v>
+        <v>5.829829153508339</v>
       </c>
       <c r="Q4">
-        <v>17.06068426975195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>24.37751519222676</v>
+      </c>
+      <c r="R4">
+        <v>18.65699997077678</v>
+      </c>
+      <c r="S4">
+        <v>16.34733062507401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.859240048558485</v>
+        <v>8.210250169457698</v>
       </c>
       <c r="D5">
-        <v>3.316419497289107</v>
+        <v>3.423345107785911</v>
       </c>
       <c r="E5">
-        <v>8.886053438849356</v>
+        <v>8.726589239561573</v>
       </c>
       <c r="F5">
-        <v>21.08763758174447</v>
+        <v>20.24451025557561</v>
       </c>
       <c r="G5">
-        <v>28.99824306187003</v>
+        <v>26.90117716864068</v>
       </c>
       <c r="H5">
-        <v>1.926058119093345</v>
+        <v>1.883972443435143</v>
       </c>
       <c r="I5">
-        <v>3.428947114167584</v>
+        <v>3.389158697775873</v>
       </c>
       <c r="J5">
-        <v>9.617587393765001</v>
+        <v>9.920878815887015</v>
       </c>
       <c r="K5">
-        <v>17.57205145784813</v>
+        <v>16.60406128307273</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.02579319712033</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.870667353511777</v>
       </c>
       <c r="N5">
-        <v>5.810119156107548</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>24.50507679930699</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>18.30996561972585</v>
+        <v>5.835716086112801</v>
       </c>
       <c r="Q5">
-        <v>16.86754534736641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>23.92192311857673</v>
+      </c>
+      <c r="R5">
+        <v>18.42582771875341</v>
+      </c>
+      <c r="S5">
+        <v>16.18207505707591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.84599446926787</v>
+        <v>8.20133442885167</v>
       </c>
       <c r="D6">
-        <v>3.313603055296841</v>
+        <v>3.419474037261274</v>
       </c>
       <c r="E6">
-        <v>8.882847210023405</v>
+        <v>8.72437567897591</v>
       </c>
       <c r="F6">
-        <v>21.02730962911888</v>
+        <v>20.18999441141728</v>
       </c>
       <c r="G6">
-        <v>28.89856096764147</v>
+        <v>26.81017214726271</v>
       </c>
       <c r="H6">
-        <v>1.915425486860501</v>
+        <v>1.87435427027663</v>
       </c>
       <c r="I6">
-        <v>3.420353652865878</v>
+        <v>3.382179624348997</v>
       </c>
       <c r="J6">
-        <v>9.602768945063007</v>
+        <v>9.907495222747512</v>
       </c>
       <c r="K6">
-        <v>17.53159447818107</v>
+        <v>16.57024027294879</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.0096943512911</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.833582822568781</v>
       </c>
       <c r="N6">
-        <v>5.810279255218092</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>24.41833223220672</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>18.27359663955345</v>
+        <v>5.83671826699076</v>
       </c>
       <c r="Q6">
-        <v>16.8270115391929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>23.83868941662344</v>
+      </c>
+      <c r="R6">
+        <v>18.38850916641982</v>
+      </c>
+      <c r="S6">
+        <v>16.14645330786067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.889051539468767</v>
+        <v>8.236459513418</v>
       </c>
       <c r="D7">
-        <v>3.341971034416479</v>
+        <v>3.45814219222902</v>
       </c>
       <c r="E7">
-        <v>8.896327363007806</v>
+        <v>8.732525158244513</v>
       </c>
       <c r="F7">
-        <v>21.35710843834876</v>
+        <v>20.46533657789812</v>
       </c>
       <c r="G7">
-        <v>29.42700089431095</v>
+        <v>27.38687548603583</v>
       </c>
       <c r="H7">
-        <v>1.983687430790902</v>
+        <v>1.935398440417303</v>
       </c>
       <c r="I7">
-        <v>3.480551327883743</v>
+        <v>3.433748879341161</v>
       </c>
       <c r="J7">
-        <v>9.67584490713382</v>
+        <v>9.916962575029634</v>
       </c>
       <c r="K7">
-        <v>17.7160548757549</v>
+        <v>16.70317816704038</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.04306153951427</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.01363528789329</v>
       </c>
       <c r="N7">
-        <v>5.808238460568643</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>24.95658797532623</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>18.53619200701073</v>
+        <v>5.829882780501425</v>
       </c>
       <c r="Q7">
-        <v>17.03564355207259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>24.34674577760298</v>
+      </c>
+      <c r="R7">
+        <v>18.65889026361532</v>
+      </c>
+      <c r="S7">
+        <v>16.3099306639795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.084252961571432</v>
+        <v>8.390965517818479</v>
       </c>
       <c r="D8">
-        <v>3.46032637417665</v>
+        <v>3.616494685416485</v>
       </c>
       <c r="E8">
-        <v>8.955382698299811</v>
+        <v>8.768356391839273</v>
       </c>
       <c r="F8">
-        <v>22.79183059915524</v>
+        <v>21.70153340289319</v>
       </c>
       <c r="G8">
-        <v>31.70974235247224</v>
+        <v>29.64850394680778</v>
       </c>
       <c r="H8">
-        <v>2.275622326951716</v>
+        <v>2.197513470381286</v>
       </c>
       <c r="I8">
-        <v>3.736312910707419</v>
+        <v>3.653227879591149</v>
       </c>
       <c r="J8">
-        <v>10.00551256167742</v>
+        <v>10.08281233177769</v>
       </c>
       <c r="K8">
-        <v>18.53945815764224</v>
+        <v>17.323234552395</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.21267769202515</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.85301679332822</v>
       </c>
       <c r="N8">
-        <v>5.798949389413109</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>27.20670803937685</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>19.65299966838439</v>
+        <v>5.800409382247257</v>
       </c>
       <c r="Q8">
-        <v>17.95608227060042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>26.48485202484044</v>
+      </c>
+      <c r="R8">
+        <v>19.8055689482066</v>
+      </c>
+      <c r="S8">
+        <v>17.06347992567939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.459615826104608</v>
+        <v>8.679536235343768</v>
       </c>
       <c r="D9">
-        <v>3.672255999459057</v>
+        <v>3.895064470885874</v>
       </c>
       <c r="E9">
-        <v>9.065953883241354</v>
+        <v>8.83433488121581</v>
       </c>
       <c r="F9">
-        <v>25.45995988630053</v>
+        <v>24.06160907924652</v>
       </c>
       <c r="G9">
-        <v>35.89109440285217</v>
+        <v>33.43917885357121</v>
       </c>
       <c r="H9">
-        <v>2.813095431081356</v>
+        <v>2.681098938792871</v>
       </c>
       <c r="I9">
-        <v>4.205106288336891</v>
+        <v>4.056181382464618</v>
       </c>
       <c r="J9">
-        <v>10.656642887978</v>
+        <v>10.60232397218964</v>
       </c>
       <c r="K9">
-        <v>20.12151490714229</v>
+        <v>18.55712997371325</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.55074522210467</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.54581306774819</v>
       </c>
       <c r="N9">
-        <v>5.779443157418259</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>31.13169396231334</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>21.68199893376328</v>
+        <v>5.74482671062697</v>
       </c>
       <c r="Q9">
-        <v>19.70468637337286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>30.23426438512141</v>
+      </c>
+      <c r="R9">
+        <v>21.88245043556548</v>
+      </c>
+      <c r="S9">
+        <v>18.54749783999283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.66173776550691</v>
+        <v>8.857284690607587</v>
       </c>
       <c r="D10">
-        <v>3.831939470758283</v>
+        <v>4.111710925247496</v>
       </c>
       <c r="E10">
-        <v>9.101302353258877</v>
+        <v>8.85155284885461</v>
       </c>
       <c r="F10">
-        <v>27.17982511583233</v>
+        <v>25.50309138736666</v>
       </c>
       <c r="G10">
-        <v>38.52181364705401</v>
+        <v>36.31473282219998</v>
       </c>
       <c r="H10">
-        <v>3.17227181028131</v>
+        <v>3.000828113905735</v>
       </c>
       <c r="I10">
-        <v>4.52384430598419</v>
+        <v>4.328002905087816</v>
       </c>
       <c r="J10">
-        <v>11.08268777775519</v>
+        <v>10.64658274093672</v>
       </c>
       <c r="K10">
-        <v>21.10647913695585</v>
+        <v>19.26317842780025</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.65675408550473</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.62261190358293</v>
       </c>
       <c r="N10">
-        <v>5.761400159770664</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>33.56244929215117</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>23.09721562090653</v>
+        <v>5.693942278465554</v>
       </c>
       <c r="Q10">
-        <v>20.82688472312116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>32.52320007901918</v>
+      </c>
+      <c r="R10">
+        <v>23.33465151316011</v>
+      </c>
+      <c r="S10">
+        <v>19.42947110806782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.367609674709243</v>
+        <v>8.805053876091664</v>
       </c>
       <c r="D11">
-        <v>4.01778451142387</v>
+        <v>4.344367193314399</v>
       </c>
       <c r="E11">
-        <v>8.959537069693983</v>
+        <v>8.812581334832837</v>
       </c>
       <c r="F11">
-        <v>27.04439407249989</v>
+        <v>25.20068761044701</v>
       </c>
       <c r="G11">
-        <v>38.08731287027373</v>
+        <v>36.96601983870301</v>
       </c>
       <c r="H11">
-        <v>3.801046575081787</v>
+        <v>3.647562676797171</v>
       </c>
       <c r="I11">
-        <v>4.611993498536044</v>
+        <v>4.401598260981344</v>
       </c>
       <c r="J11">
-        <v>10.9363347769564</v>
+        <v>9.905872821126286</v>
       </c>
       <c r="K11">
-        <v>20.60173831176948</v>
+        <v>18.66898651679053</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.06713713042732</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.37060332546577</v>
       </c>
       <c r="N11">
-        <v>5.854027079171406</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>33.46363026978815</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>23.97238952857897</v>
+        <v>5.697779007315238</v>
       </c>
       <c r="Q11">
-        <v>20.55873697780565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>32.36534349239863</v>
+      </c>
+      <c r="R11">
+        <v>24.2260545575393</v>
+      </c>
+      <c r="S11">
+        <v>19.02228267108045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.144343418833891</v>
+        <v>8.775162631205536</v>
       </c>
       <c r="D12">
-        <v>4.144206253544025</v>
+        <v>4.490926662088137</v>
       </c>
       <c r="E12">
-        <v>9.095398486393231</v>
+        <v>9.030445374330256</v>
       </c>
       <c r="F12">
-        <v>26.59732613393453</v>
+        <v>24.71711242504611</v>
       </c>
       <c r="G12">
-        <v>37.22246362102279</v>
+        <v>36.67544953916183</v>
       </c>
       <c r="H12">
-        <v>4.826380591050701</v>
+        <v>4.706255999463453</v>
       </c>
       <c r="I12">
-        <v>4.624315794285065</v>
+        <v>4.410860057574284</v>
       </c>
       <c r="J12">
-        <v>10.73027289762717</v>
+        <v>9.461511299518758</v>
       </c>
       <c r="K12">
-        <v>19.99774894018833</v>
+        <v>18.0788192812791</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.59568579219355</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.97831580994205</v>
       </c>
       <c r="N12">
-        <v>6.101991776923676</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>32.89316178238284</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>24.41912216316643</v>
+        <v>5.885448171133977</v>
       </c>
       <c r="Q12">
-        <v>20.11729016334786</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>31.79298337568333</v>
+      </c>
+      <c r="R12">
+        <v>24.67466064491867</v>
+      </c>
+      <c r="S12">
+        <v>18.55370364758932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.941602577348204</v>
+        <v>8.751763453401077</v>
       </c>
       <c r="D13">
-        <v>4.237373853249732</v>
+        <v>4.57930255848752</v>
       </c>
       <c r="E13">
-        <v>9.43220774052967</v>
+        <v>9.439580170731539</v>
       </c>
       <c r="F13">
-        <v>25.83377633613334</v>
+        <v>24.05011183893727</v>
       </c>
       <c r="G13">
-        <v>35.88308468924966</v>
+        <v>35.35145329407908</v>
       </c>
       <c r="H13">
-        <v>5.991535336865998</v>
+        <v>5.901078813749389</v>
       </c>
       <c r="I13">
-        <v>4.579290913111623</v>
+        <v>4.373817368166854</v>
       </c>
       <c r="J13">
-        <v>10.44865172175198</v>
+        <v>9.304623962421351</v>
       </c>
       <c r="K13">
-        <v>19.22761148116209</v>
+        <v>17.4275878076134</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.16274997080397</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.43101978823464</v>
       </c>
       <c r="N13">
-        <v>6.460167120145171</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>31.88723297940319</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>24.57773267482701</v>
+        <v>6.207804721094998</v>
       </c>
       <c r="Q13">
-        <v>19.47398141427892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>30.84270257420587</v>
+      </c>
+      <c r="R13">
+        <v>24.82118259109702</v>
+      </c>
+      <c r="S13">
+        <v>17.99807628717199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.815440964530604</v>
+        <v>8.746256864741328</v>
       </c>
       <c r="D14">
-        <v>4.289415482942641</v>
+        <v>4.616234056831078</v>
       </c>
       <c r="E14">
-        <v>9.776752077924629</v>
+        <v>9.829870469620946</v>
       </c>
       <c r="F14">
-        <v>25.13950373012736</v>
+        <v>23.48363335673311</v>
       </c>
       <c r="G14">
-        <v>34.69992127930832</v>
+        <v>33.93405074714226</v>
       </c>
       <c r="H14">
-        <v>6.859025414067775</v>
+        <v>6.785857513703474</v>
       </c>
       <c r="I14">
-        <v>4.522322367097218</v>
+        <v>4.32765173292073</v>
       </c>
       <c r="J14">
-        <v>10.21287508741416</v>
+        <v>9.311341169038784</v>
       </c>
       <c r="K14">
-        <v>18.5991369011162</v>
+        <v>16.93032208230544</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.86661633619272</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.96542638617508</v>
       </c>
       <c r="N14">
-        <v>6.765498370364437</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>30.96632354309226</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>24.56101294746379</v>
+        <v>6.501267103672105</v>
       </c>
       <c r="Q14">
-        <v>18.91962884473167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>29.98697371452892</v>
+      </c>
+      <c r="R14">
+        <v>24.78966241060568</v>
+      </c>
+      <c r="S14">
+        <v>17.55689644178547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.781781798695123</v>
+        <v>8.742635679789679</v>
       </c>
       <c r="D15">
-        <v>4.295555508840242</v>
+        <v>4.613744120764347</v>
       </c>
       <c r="E15">
-        <v>9.868472624750192</v>
+        <v>9.932935433530474</v>
       </c>
       <c r="F15">
-        <v>24.89283742513279</v>
+        <v>23.2944953565889</v>
       </c>
       <c r="G15">
-        <v>34.29164504058783</v>
+        <v>33.36389036296241</v>
       </c>
       <c r="H15">
-        <v>7.05640688408245</v>
+        <v>6.987817324700642</v>
       </c>
       <c r="I15">
-        <v>4.49586786166301</v>
+        <v>4.306665777566099</v>
       </c>
       <c r="J15">
-        <v>10.13658029503895</v>
+        <v>9.360822782654839</v>
       </c>
       <c r="K15">
-        <v>18.40099101475586</v>
+        <v>16.7852241190019</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.7937434812019</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.80992776437428</v>
       </c>
       <c r="N15">
-        <v>6.839893986795442</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>30.64069450079283</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>24.49611072660016</v>
+        <v>6.576534081780751</v>
       </c>
       <c r="Q15">
-        <v>18.73387897150374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>29.6887761160665</v>
+      </c>
+      <c r="R15">
+        <v>24.71836088671325</v>
+      </c>
+      <c r="S15">
+        <v>17.42135496966062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.728789834758675</v>
+        <v>8.670225912101392</v>
       </c>
       <c r="D16">
-        <v>4.213922098586418</v>
+        <v>4.489684198833357</v>
       </c>
       <c r="E16">
-        <v>9.776245357693622</v>
+        <v>9.845302235077872</v>
       </c>
       <c r="F16">
-        <v>24.26174456118457</v>
+        <v>22.8868500142403</v>
       </c>
       <c r="G16">
-        <v>33.34000207370466</v>
+        <v>31.55091110788676</v>
       </c>
       <c r="H16">
-        <v>6.776778110155503</v>
+        <v>6.716730628520128</v>
       </c>
       <c r="I16">
-        <v>4.36963207120235</v>
+        <v>4.203374403948752</v>
       </c>
       <c r="J16">
-        <v>9.996671803870258</v>
+        <v>9.777410998208246</v>
       </c>
       <c r="K16">
-        <v>18.08931212592925</v>
+        <v>16.65019551406355</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.84917472084464</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.48809314999411</v>
       </c>
       <c r="N16">
-        <v>6.763199491515095</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>29.76212944108848</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>23.88996124851513</v>
+        <v>6.526690008964636</v>
       </c>
       <c r="Q16">
-        <v>18.34306611178508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>28.90870861958928</v>
+      </c>
+      <c r="R16">
+        <v>24.08818681938982</v>
+      </c>
+      <c r="S16">
+        <v>17.22117864900229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.748859822923954</v>
+        <v>8.609500545573432</v>
       </c>
       <c r="D17">
-        <v>4.121800158755903</v>
+        <v>4.377191725222851</v>
       </c>
       <c r="E17">
-        <v>9.503225157130101</v>
+        <v>9.54765751685445</v>
       </c>
       <c r="F17">
-        <v>24.15754320391015</v>
+        <v>22.8640967559256</v>
       </c>
       <c r="G17">
-        <v>33.25998434548529</v>
+        <v>31.06513083048491</v>
       </c>
       <c r="H17">
-        <v>6.05129310000897</v>
+        <v>5.989936659258261</v>
       </c>
       <c r="I17">
-        <v>4.302782355674982</v>
+        <v>4.147864711490438</v>
       </c>
       <c r="J17">
-        <v>10.01764960234463</v>
+        <v>10.02896176124029</v>
       </c>
       <c r="K17">
-        <v>18.19285331915215</v>
+        <v>16.80510977857989</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.04739765472944</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.48485972536739</v>
       </c>
       <c r="N17">
-        <v>6.532163203009608</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>29.58943622103443</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>23.4261833929842</v>
+        <v>6.321001965584892</v>
       </c>
       <c r="Q17">
-        <v>18.34669643510003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>28.76825720479828</v>
+      </c>
+      <c r="R17">
+        <v>23.6157628367232</v>
+      </c>
+      <c r="S17">
+        <v>17.29216233802077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.867004342440914</v>
+        <v>8.575890695846029</v>
       </c>
       <c r="D18">
-        <v>4.010497063057987</v>
+        <v>4.256893949941679</v>
       </c>
       <c r="E18">
-        <v>9.147351953063181</v>
+        <v>9.134656674991351</v>
       </c>
       <c r="F18">
-        <v>24.51685461065079</v>
+        <v>23.21946410964359</v>
       </c>
       <c r="G18">
-        <v>33.96258605947515</v>
+        <v>31.53023868546224</v>
       </c>
       <c r="H18">
-        <v>4.918521263133334</v>
+        <v>4.84422162202562</v>
       </c>
       <c r="I18">
-        <v>4.281194505447534</v>
+        <v>4.128284172750584</v>
       </c>
       <c r="J18">
-        <v>10.18465278963752</v>
+        <v>10.27122436045692</v>
       </c>
       <c r="K18">
-        <v>18.68578166807711</v>
+        <v>17.26536997355304</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.42109034193123</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.78544580503282</v>
       </c>
       <c r="N18">
-        <v>6.20242410765126</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>30.02896028892846</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>23.03648657229713</v>
+        <v>6.023892156514245</v>
       </c>
       <c r="Q18">
-        <v>18.70567501750463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>29.19705950641895</v>
+      </c>
+      <c r="R18">
+        <v>23.22725441099351</v>
+      </c>
+      <c r="S18">
+        <v>17.64408316315683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.082235572495046</v>
+        <v>8.604444245314054</v>
       </c>
       <c r="D19">
-        <v>3.902846569767314</v>
+        <v>4.147277424737526</v>
       </c>
       <c r="E19">
-        <v>8.928067119366117</v>
+        <v>8.830270411487749</v>
       </c>
       <c r="F19">
-        <v>25.16926206454003</v>
+        <v>23.8137367612536</v>
       </c>
       <c r="G19">
-        <v>35.14827029022999</v>
+        <v>32.55627062741509</v>
       </c>
       <c r="H19">
-        <v>3.738808774087314</v>
+        <v>3.635363816637136</v>
       </c>
       <c r="I19">
-        <v>4.303791920654461</v>
+        <v>4.147444589466601</v>
       </c>
       <c r="J19">
-        <v>10.43751075964136</v>
+        <v>10.51411763475402</v>
       </c>
       <c r="K19">
-        <v>19.39874670129258</v>
+        <v>17.89230801833125</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.87931076356964</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.26900118459205</v>
       </c>
       <c r="N19">
-        <v>5.912539121409821</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>30.88961207255468</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>22.7463987846333</v>
+        <v>5.779248289290986</v>
       </c>
       <c r="Q19">
-        <v>19.27884792928322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>30.01897969713579</v>
+      </c>
+      <c r="R19">
+        <v>22.94487497505104</v>
+      </c>
+      <c r="S19">
+        <v>18.1634301156116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.564835907780997</v>
+        <v>8.790169930318505</v>
       </c>
       <c r="D20">
-        <v>3.799669290292112</v>
+        <v>4.059221361656917</v>
       </c>
       <c r="E20">
-        <v>9.083114789177781</v>
+        <v>8.8401624296894</v>
       </c>
       <c r="F20">
-        <v>26.66263703086779</v>
+        <v>25.10792222796584</v>
       </c>
       <c r="G20">
-        <v>37.71430514250804</v>
+        <v>35.14364395795713</v>
       </c>
       <c r="H20">
-        <v>3.073301716451814</v>
+        <v>2.914189304012767</v>
       </c>
       <c r="I20">
-        <v>4.442765477052534</v>
+        <v>4.264050314975971</v>
       </c>
       <c r="J20">
-        <v>10.94387947294015</v>
+        <v>10.78694408888608</v>
       </c>
       <c r="K20">
-        <v>20.76622295731634</v>
+        <v>19.03038334151483</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.59481829943106</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.30308282383696</v>
       </c>
       <c r="N20">
-        <v>5.764837213417891</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>32.89459215811556</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>22.74447098414785</v>
+        <v>5.706991042707705</v>
       </c>
       <c r="Q20">
-        <v>20.47340905752243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>31.91204096608174</v>
+      </c>
+      <c r="R20">
+        <v>22.96796139460368</v>
+      </c>
+      <c r="S20">
+        <v>19.18137942424487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.794702108077288</v>
+        <v>8.964919272926505</v>
       </c>
       <c r="D21">
-        <v>3.898148743284696</v>
+        <v>4.233301254605878</v>
       </c>
       <c r="E21">
-        <v>9.172212564094716</v>
+        <v>8.898105837477392</v>
       </c>
       <c r="F21">
-        <v>28.1111085996437</v>
+        <v>26.08570006500531</v>
       </c>
       <c r="G21">
-        <v>39.96135777016884</v>
+        <v>39.09730927093857</v>
       </c>
       <c r="H21">
-        <v>3.365037596814012</v>
+        <v>3.16555104994952</v>
       </c>
       <c r="I21">
-        <v>4.691647595288218</v>
+        <v>4.46708985763141</v>
       </c>
       <c r="J21">
-        <v>11.33068161504608</v>
+        <v>9.969847421086461</v>
       </c>
       <c r="K21">
-        <v>21.68265999369531</v>
+        <v>19.5545904558107</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.66698246048334</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.10856036608548</v>
       </c>
       <c r="N21">
-        <v>5.755846959548996</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>34.87478280888084</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>23.74632970094096</v>
+        <v>5.68670846392333</v>
       </c>
       <c r="Q21">
-        <v>21.45791166080431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>33.67946743347103</v>
+      </c>
+      <c r="R21">
+        <v>24.02105172193273</v>
+      </c>
+      <c r="S21">
+        <v>19.7594301992804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.93562078225118</v>
+        <v>9.078559425541311</v>
       </c>
       <c r="D22">
-        <v>3.963624241133549</v>
+        <v>4.349631666701645</v>
       </c>
       <c r="E22">
-        <v>9.212707838990593</v>
+        <v>8.926396560200407</v>
       </c>
       <c r="F22">
-        <v>29.00698978480655</v>
+        <v>26.67064818596182</v>
       </c>
       <c r="G22">
-        <v>41.33886930662558</v>
+        <v>41.65959033221651</v>
       </c>
       <c r="H22">
-        <v>3.546391118583875</v>
+        <v>3.321233511542687</v>
       </c>
       <c r="I22">
-        <v>4.847144501822105</v>
+        <v>4.59239881212661</v>
       </c>
       <c r="J22">
-        <v>11.57167277800275</v>
+        <v>9.391560231040218</v>
       </c>
       <c r="K22">
-        <v>22.24654746842057</v>
+        <v>19.86129141513974</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.69078911528683</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.60111534674733</v>
       </c>
       <c r="N22">
-        <v>5.748375224431204</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>36.06080718954561</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>24.39072570517598</v>
+        <v>5.667905245077598</v>
       </c>
       <c r="Q22">
-        <v>22.06602048524683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>34.72803880265651</v>
+      </c>
+      <c r="R22">
+        <v>24.69863645679613</v>
+      </c>
+      <c r="S22">
+        <v>20.09715129516487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.876886329141922</v>
+        <v>9.023728382521783</v>
       </c>
       <c r="D23">
-        <v>3.925737842077103</v>
+        <v>4.279532647048946</v>
       </c>
       <c r="E23">
-        <v>9.193939473034412</v>
+        <v>8.912720621572602</v>
       </c>
       <c r="F23">
-        <v>28.55623822465501</v>
+        <v>26.41863020411594</v>
       </c>
       <c r="G23">
-        <v>40.65230188010636</v>
+        <v>40.13038222137998</v>
       </c>
       <c r="H23">
-        <v>3.451531356631162</v>
+        <v>3.240934536557852</v>
       </c>
       <c r="I23">
-        <v>4.763723781100773</v>
+        <v>4.524786543062837</v>
       </c>
       <c r="J23">
-        <v>11.45285550793308</v>
+        <v>9.827021900845095</v>
       </c>
       <c r="K23">
-        <v>21.97616546047788</v>
+        <v>19.74886698027765</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.71369398824377</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.37980413273762</v>
       </c>
       <c r="N23">
-        <v>5.75259631232994</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>35.44857690189913</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>24.04530504704817</v>
+        <v>5.677525201261685</v>
       </c>
       <c r="Q23">
-        <v>21.76429227594106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>34.2019289568144</v>
+      </c>
+      <c r="R23">
+        <v>24.33261329892487</v>
+      </c>
+      <c r="S23">
+        <v>19.9679478629196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.622397825529138</v>
+        <v>8.812988557752284</v>
       </c>
       <c r="D24">
-        <v>3.783374075464083</v>
+        <v>4.041216723726786</v>
       </c>
       <c r="E24">
-        <v>9.117468411590472</v>
+        <v>8.863653415389493</v>
       </c>
       <c r="F24">
-        <v>26.75871216772953</v>
+        <v>25.20033779375049</v>
       </c>
       <c r="G24">
-        <v>37.89112547320479</v>
+        <v>35.29258199419424</v>
       </c>
       <c r="H24">
-        <v>3.08264934824292</v>
+        <v>2.922861886174511</v>
       </c>
       <c r="I24">
-        <v>4.442407127023462</v>
+        <v>4.261474692758755</v>
       </c>
       <c r="J24">
-        <v>10.98246502837376</v>
+        <v>10.83108014457303</v>
       </c>
       <c r="K24">
-        <v>20.88127300157338</v>
+        <v>19.13740444467669</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.675565169145</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.38279146811469</v>
       </c>
       <c r="N24">
-        <v>5.768116158411741</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>32.99144481219789</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>22.69876344244464</v>
+        <v>5.716543784723838</v>
       </c>
       <c r="Q24">
-        <v>20.55972899123564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>32.00591148829317</v>
+      </c>
+      <c r="R24">
+        <v>22.92276445329414</v>
+      </c>
+      <c r="S24">
+        <v>19.26394354379069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.335619351996177</v>
+        <v>8.591074187292898</v>
       </c>
       <c r="D25">
-        <v>3.62153680524739</v>
+        <v>3.824761967849139</v>
       </c>
       <c r="E25">
-        <v>9.032474154389266</v>
+        <v>8.813671447768549</v>
       </c>
       <c r="F25">
-        <v>24.71719457345278</v>
+        <v>23.4211497165598</v>
       </c>
       <c r="G25">
-        <v>34.72492774688781</v>
+        <v>32.24434087417517</v>
       </c>
       <c r="H25">
-        <v>2.668979525720679</v>
+        <v>2.552232625856945</v>
       </c>
       <c r="I25">
-        <v>4.082178984523732</v>
+        <v>3.953067325784981</v>
       </c>
       <c r="J25">
-        <v>10.46645694666343</v>
+        <v>10.52320249364257</v>
       </c>
       <c r="K25">
-        <v>19.65434628245793</v>
+        <v>18.19727112736337</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.44090604967843</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.06640808107549</v>
       </c>
       <c r="N25">
-        <v>5.784448886076778</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>30.0980180891386</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>21.15694980738517</v>
+        <v>5.75995905351693</v>
       </c>
       <c r="Q25">
-        <v>19.20654769442486</v>
+        <v>29.25488813879632</v>
+      </c>
+      <c r="R25">
+        <v>21.34318272855891</v>
+      </c>
+      <c r="S25">
+        <v>18.13755770362828</v>
       </c>
     </row>
   </sheetData>
